--- a/外部設計/資料/モデルテンプレート資料.xlsx
+++ b/外部設計/資料/モデルテンプレート資料.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="136">
   <si>
     <t>1. 概要</t>
     <rPh sb="3" eb="5">
@@ -1240,51 +1240,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・モデル空間に配置する図面ブロック</t>
-    <rPh sb="4" eb="6">
-      <t>クウカン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ズメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・レイアウト空間に配置する帳票レイアウト</t>
-    <rPh sb="6" eb="8">
-      <t>クウカン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>チョウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・帳票レイアウトに配置するモデル空間の図面を表示するビューポート</t>
-    <rPh sb="1" eb="3">
-      <t>チョウヒョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>クウカン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・AT-B図面の属性を定義する為のカスタムプロパティの設定</t>
     <rPh sb="5" eb="7">
       <t>ズメン</t>
@@ -1780,6 +1735,91 @@
     <t>以上.</t>
     <rPh sb="0" eb="2">
       <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・基準線や基準円等の作図に必要な線種および画層の設定</t>
+    <rPh sb="1" eb="4">
+      <t>キジュンセン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクズ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センシュ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガソウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・モデル空間に配置する図面ブロックの作成</t>
+    <rPh sb="4" eb="6">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・レイアウト空間に配置する帳票レイアウトの作成</t>
+    <rPh sb="6" eb="8">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・帳票レイアウトに配置するモデル空間の図面を表示するビューポートの設定</t>
+    <rPh sb="1" eb="3">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2022,14 +2062,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10794,13 +10834,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>141901</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10849,13 +10889,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10903,13 +10943,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>347028</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10963,13 +11003,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -10979,7 +11019,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1485900" y="11630025"/>
+          <a:off x="1485900" y="11868150"/>
           <a:ext cx="2219325" cy="2981325"/>
           <a:chOff x="1866900" y="10906125"/>
           <a:chExt cx="2219325" cy="2971800"/>
@@ -11185,13 +11225,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -11201,7 +11241,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4762500" y="11630025"/>
+          <a:off x="4762500" y="11868150"/>
           <a:ext cx="2219325" cy="2981325"/>
           <a:chOff x="1514475" y="21393150"/>
           <a:chExt cx="2219325" cy="2971800"/>
@@ -11407,13 +11447,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>163078</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -11423,7 +11463,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1476375" y="3724275"/>
+          <a:off x="1476375" y="3962400"/>
           <a:ext cx="1895475" cy="1868053"/>
           <a:chOff x="2333625" y="3238500"/>
           <a:chExt cx="1895475" cy="1868053"/>
@@ -11533,13 +11573,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>554346</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -11549,7 +11589,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1285875" y="15249525"/>
+          <a:off x="1285875" y="15487650"/>
           <a:ext cx="6926571" cy="4905375"/>
           <a:chOff x="1285875" y="15297150"/>
           <a:chExt cx="6926571" cy="4905375"/>
@@ -11782,13 +11822,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>603165</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -11798,7 +11838,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1228726" y="21193126"/>
+          <a:off x="1228726" y="21431251"/>
           <a:ext cx="7032539" cy="4924424"/>
           <a:chOff x="1228726" y="21193126"/>
           <a:chExt cx="7032539" cy="4924424"/>
@@ -12211,13 +12251,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>159186</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -12227,7 +12267,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1219201" y="27336750"/>
+          <a:off x="1219201" y="27574875"/>
           <a:ext cx="7010400" cy="4940736"/>
           <a:chOff x="1219201" y="27336750"/>
           <a:chExt cx="7010400" cy="4940736"/>
@@ -12640,13 +12680,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>85696</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -12656,7 +12696,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1247776" y="33347026"/>
+          <a:off x="1247776" y="33585151"/>
           <a:ext cx="4438620" cy="3124200"/>
           <a:chOff x="1247776" y="33280351"/>
           <a:chExt cx="4438620" cy="3124200"/>
@@ -12754,13 +12794,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>106350</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -12770,7 +12810,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6276976" y="33366076"/>
+          <a:off x="6276976" y="33604201"/>
           <a:ext cx="4448174" cy="3144824"/>
           <a:chOff x="6276976" y="33299401"/>
           <a:chExt cx="4448174" cy="3144824"/>
@@ -12868,13 +12908,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>228601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>227769</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -12884,7 +12924,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6267451" y="36633151"/>
+          <a:off x="6267451" y="36871276"/>
           <a:ext cx="4438650" cy="3094793"/>
           <a:chOff x="6267451" y="36633151"/>
           <a:chExt cx="4438650" cy="3094793"/>
@@ -12982,13 +13022,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>228601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>22630</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -12998,7 +13038,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1247776" y="36633151"/>
+          <a:off x="1247776" y="36871276"/>
           <a:ext cx="4457700" cy="3127779"/>
           <a:chOff x="1247776" y="36633151"/>
           <a:chExt cx="4457700" cy="3127779"/>
@@ -13096,13 +13136,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>551948</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>132830</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13562,26 +13602,26 @@
     </row>
     <row r="54" spans="5:23" x14ac:dyDescent="0.4">
       <c r="N54" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="5:23" x14ac:dyDescent="0.4">
       <c r="N55" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="O55" s="16" t="s">
+      <c r="O55" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="16" t="s">
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="U55" s="16"/>
-      <c r="V55" s="16"/>
-      <c r="W55" s="16"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="18"/>
     </row>
     <row r="56" spans="5:23" x14ac:dyDescent="0.4">
       <c r="N56" s="4" t="s">
@@ -13893,7 +13933,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O191"/>
+  <dimension ref="B2:O192"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -13923,67 +13963,69 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C11" s="2" t="s">
-        <v>106</v>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C12" s="2"/>
-      <c r="D12" t="s">
-        <v>108</v>
+      <c r="C12" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C13" s="2"/>
-      <c r="D13" s="17" t="s">
-        <v>107</v>
+      <c r="D13" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C14" s="2"/>
-      <c r="D14" s="17"/>
-      <c r="E14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" t="s">
-        <v>111</v>
+      <c r="D14" s="16" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C15" s="2"/>
+      <c r="D15" s="16"/>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C16" s="2"/>
+      <c r="E16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="17" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C17" s="2"/>
@@ -14006,44 +14048,44 @@
     <row r="23" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="D24" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="1"/>
+    <row r="24" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="D25" s="1"/>
-      <c r="E25" t="s">
-        <v>67</v>
+      <c r="D25" s="1" t="s">
+        <v>110</v>
       </c>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.4">
       <c r="D26" s="1"/>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.4">
       <c r="D27" s="1"/>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.4">
       <c r="D28" s="1"/>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.4">
       <c r="D29" s="1"/>
-      <c r="F29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.4">
       <c r="D30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.4">
       <c r="D31" s="1"/>
@@ -14051,188 +14093,191 @@
     <row r="32" spans="3:12" x14ac:dyDescent="0.4">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D41" s="1" t="s">
-        <v>114</v>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D42" s="1" t="s">
+        <v>111</v>
       </c>
-      <c r="E41" s="1"/>
+      <c r="E42" s="1"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="E42" t="s">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="E43" t="s">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E44" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="E45" t="s">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="F46" s="1" t="s">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F47" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="F49" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="I53" t="s">
+        <v>63</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="G59" t="s">
+        <v>64</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C60" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="D61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="D62" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="E63" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="F48" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="I52" t="s">
-        <v>63</v>
-      </c>
-      <c r="N52" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="G58" t="s">
-        <v>64</v>
-      </c>
-      <c r="L58" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C59" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="D60" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="D61" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="E62" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="E63" s="18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D85" s="17" t="s">
+    <row r="64" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="E64" s="17" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="E86" t="s">
+      <c r="D86" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E88" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E89" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D111" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="E87" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="E88" s="18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D110" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="E111" t="s">
-        <v>125</v>
-      </c>
-    </row>
     <row r="112" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="E112" s="18" t="s">
+      <c r="E112" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E113" s="18" t="s">
-        <v>123</v>
+      <c r="E113" s="17" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D136" s="17" t="s">
-        <v>127</v>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E114" s="17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="137" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="E137" t="s">
-        <v>128</v>
+      <c r="D137" s="16" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="138" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="E138" s="1" t="s">
-        <v>129</v>
+      <c r="E138" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="139" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="E139" s="18" t="s">
-        <v>123</v>
+      <c r="E139" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="168" spans="3:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C168" s="2" t="s">
-        <v>130</v>
+    <row r="140" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E140" s="17" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D169" t="s">
-        <v>133</v>
+    <row r="169" spans="3:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C169" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="170" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D170" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D172" s="1" t="s">
-        <v>132</v>
+    <row r="171" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D171" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="191" spans="15:15" ht="24" x14ac:dyDescent="0.4">
-      <c r="O191" s="3" t="s">
-        <v>134</v>
+    <row r="173" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D173" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="192" spans="15:15" ht="24" x14ac:dyDescent="0.4">
+      <c r="O192" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/外部設計/資料/モデルテンプレート資料.xlsx
+++ b/外部設計/資料/モデルテンプレート資料.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25825"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ToyoTire\ToyoTireGit\外部設計\資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\TOYO TIRE\Git\TOYOTIRE_BRAND\外部設計\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_787B4A688B0313377E7B5FBA190D54C92E355D14" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="11025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="11025" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="136">
   <si>
     <t>1. 概要</t>
     <rPh sb="3" eb="5">
@@ -59,12 +60,78 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>および図面テンプレートに関する実現方法の検討結果を記載します。</t>
+    <rPh sb="3" eb="5">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. 図面レイアウト</t>
+    <rPh sb="3" eb="5">
+      <t>ズメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>2-1. 基本方針</t>
     <rPh sb="5" eb="7">
       <t>キホン</t>
     </rPh>
     <rPh sb="7" eb="9">
       <t>ホウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円弧配列、C表および他の図面の運用において、AdvanceCADのピクチャー機能を用いて図面の呼出および</t>
+    <rPh sb="0" eb="2">
+      <t>エンコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヨビダシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -82,6 +149,103 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>しかし、オペレータが可能な限り違和感なくスムーズにAutoCADへの移行を進めていく必要がありますので</t>
+    <rPh sb="10" eb="12">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存のピクチャー番号に相当する図面の番号化を行う必要があると考えます。</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウトウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AutoCADの一般的な運用手法として、モデル空間とレイアウト空間（ペーパー空間）を使った図面レイアウトの運用を</t>
+    <rPh sb="8" eb="11">
+      <t>イッパンテキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>クウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採択しますが、作成・呼出を行った図面に対し明示的に「PIC番号」を割り当てます。</t>
+    <rPh sb="0" eb="2">
+      <t>サイタク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨビダシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>メイジテキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>モデル空間で図面の作成・呼出を行い、レイアウト空間には帳票（最終結果）となるテンプレートを作成しておき、</t>
     <rPh sb="45" eb="47">
       <t>サクセイ</t>
@@ -120,6 +284,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>想定しています。</t>
+    <rPh sb="0" eb="2">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>（モデル空間）</t>
     <rPh sb="4" eb="6">
       <t>クウカン</t>
@@ -134,9 +305,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2. 図面レイアウト</t>
-    <rPh sb="3" eb="5">
-      <t>ズメン</t>
+    <t>はビューポートを示します。</t>
+    <rPh sb="8" eb="9">
+      <t>シメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -148,118 +319,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>円弧配列、C表および他の図面の運用において、AdvanceCADのピクチャー機能を用いて図面の呼出および</t>
-    <rPh sb="0" eb="2">
-      <t>エンコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
+    <t>モデル空間の運用に関して示します。</t>
+    <rPh sb="3" eb="5">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
       <t>ウンヨウ</t>
     </rPh>
-    <rPh sb="38" eb="40">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ヨビダシ</t>
+    <rPh sb="9" eb="10">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AutoCADの一般的な運用手法として、モデル空間とレイアウト空間（ペーパー空間）を使った図面レイアウトの運用を</t>
-    <rPh sb="8" eb="11">
-      <t>イッパンテキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ウンヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュホウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
+    <t>2-2-1. モデル空間の選択（表示）</t>
+    <rPh sb="10" eb="12">
       <t>クウカン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>採択しますが、作成・呼出を行った図面に対し明示的に「PIC番号」を割り当てます。</t>
-    <rPh sb="0" eb="2">
-      <t>サイタク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヨビダシ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オコナ</t>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
     </rPh>
     <rPh sb="16" eb="18">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>メイジテキ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>想定しています。</t>
-    <rPh sb="0" eb="2">
-      <t>ソウテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>および図面テンプレートに関する実現方法の検討結果を記載します。</t>
-    <rPh sb="3" eb="5">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジツゲン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケントウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キサイ</t>
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -274,78 +358,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2-2-1. モデル空間の選択（表示）</t>
+    <t>2-2-2. モデル空間への図形の割り当て</t>
     <rPh sb="10" eb="12">
       <t>クウカン</t>
     </rPh>
-    <rPh sb="13" eb="15">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モデル空間の運用に関して示します。</t>
-    <rPh sb="3" eb="5">
-      <t>クウカン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ウンヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>シメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>しかし、オペレータが可能な限り違和感なくスムーズにAutoCADへの移行を進めていく必要がありますので</t>
-    <rPh sb="10" eb="12">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カギ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>既存のピクチャー番号に相当する図面の番号化を行う必要があると考えます。</t>
-    <rPh sb="0" eb="2">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ソウトウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>カンガ</t>
+    <rPh sb="14" eb="16">
+      <t>ズケイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -403,6 +427,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>矩形内の左上に表示します。</t>
+    <rPh sb="0" eb="3">
+      <t>クケイナイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>③ 見た目を分かり易くする為、PIC番号が固定となる図面のブロック群を右半分に配置し、</t>
     <rPh sb="2" eb="3">
       <t>ミ</t>
@@ -438,6 +478,28 @@
       <t>ハンブン</t>
     </rPh>
     <rPh sb="39" eb="41">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PIC番号が流動的となる図面のブロック群を左半分に配置します。</t>
+    <rPh sb="6" eb="9">
+      <t>リュウドウテキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>グン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンブン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
       <t>ハイチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -458,6 +520,101 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>ハンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成・呼出を行った図面数分、PIC番号の若い順に配置します。</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨビダシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ワカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤ 図形ブロックは、基準線設定後に配置されます。</t>
+  </si>
+  <si>
+    <t>円弧配列・C表の固定PIC番号（固定となるPIC番号については検討・確認要）</t>
+    <rPh sb="0" eb="2">
+      <t>エンコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PIC番号</t>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円弧配列</t>
+    <rPh sb="0" eb="2">
+      <t>エンコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C表</t>
+    <rPh sb="1" eb="2">
+      <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -466,46 +623,41 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ー</t>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>PIC.2</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Top形状</t>
+    <rPh sb="3" eb="5">
+      <t>ケイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヤ側面（反セリアル）</t>
   </si>
   <si>
     <t>PIC.3</t>
   </si>
   <si>
-    <t>PIC.4</t>
-  </si>
-  <si>
-    <t>PIC.5</t>
-  </si>
-  <si>
-    <t>PIC.6</t>
-  </si>
-  <si>
-    <t>PIC.7</t>
-  </si>
-  <si>
-    <t>PIC.8</t>
-  </si>
-  <si>
-    <t>PIC.9</t>
-  </si>
-  <si>
-    <t>PIC.10</t>
-  </si>
-  <si>
-    <t>Top形状</t>
-    <rPh sb="3" eb="5">
+    <t>Bottom形状</t>
+    <rPh sb="6" eb="8">
       <t>ケイジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Bottom形状</t>
-    <rPh sb="6" eb="8">
-      <t>ケイジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>タイヤ側面（セリアル）</t>
+  </si>
+  <si>
+    <t>PIC.4</t>
   </si>
   <si>
     <t>TYPE A 専用図面</t>
@@ -516,25 +668,61 @@
       <t>ズメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Platformマーク（セリアル側）</t>
+  </si>
+  <si>
+    <t>PIC.5</t>
   </si>
   <si>
     <t>Note</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Platformマーク（反セリアル側）</t>
+  </si>
+  <si>
+    <t>PIC.6</t>
+  </si>
+  <si>
+    <t>セリアル側上部の表題欄</t>
+  </si>
+  <si>
+    <t>PIC.7</t>
+  </si>
+  <si>
     <t>COARSENESS OF SIDE</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベリング詳細欄（セリアル側）</t>
+  </si>
+  <si>
+    <t>PIC.8</t>
   </si>
   <si>
     <t>DEFINE:NOT PROCESS  DEFINE:PROCESS</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ラベリング詳細欄（反セリアル側）</t>
+  </si>
+  <si>
+    <t>PIC.9</t>
+  </si>
+  <si>
     <t>コード表(Top)</t>
     <rPh sb="3" eb="4">
       <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安全コード</t>
+  </si>
+  <si>
+    <t>PIC.10</t>
   </si>
   <si>
     <t>コード表(Bottom)</t>
@@ -544,20 +732,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2-2-2. モデル空間への図形の割り当て</t>
-    <rPh sb="10" eb="12">
-      <t>クウカン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ズケイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t xml:space="preserve"> ー</t>
   </si>
   <si>
     <t>2-3. レイアウト空間</t>
@@ -596,6 +771,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>AutoCADの左下の「モデル」タブの右側が、各レイアウト空間のタブになります。</t>
+    <rPh sb="8" eb="10">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>クウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>（タブの名称は変更予定）</t>
     <rPh sb="4" eb="6">
       <t>メイショウ</t>
@@ -605,22 +796,6 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AutoCADの左下の「モデル」タブの右側が、各レイアウト空間のタブになります。</t>
-    <rPh sb="8" eb="10">
-      <t>ヒダリシタ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ミギガワ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>クウカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -638,6 +813,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>(案1.) 編集中の図面をレイアウト空間に表示する</t>
+    <rPh sb="1" eb="2">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヘンシュウチュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成・編集中の図面を「カレント（仮称）」レイアウトに表示します。</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヘンシュウチュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カショウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>円弧配置では、Top形状(PIC.2)が表示されます。</t>
     <rPh sb="0" eb="2">
       <t>エンコ</t>
@@ -649,6 +862,149 @@
       <t>ケイジョウ</t>
     </rPh>
     <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円弧に配置する編集文字・マーク類の選択は、モデル空間に切替えてマウスによる選択が可能です。</t>
+    <rPh sb="0" eb="2">
+      <t>エンコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キリカエ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(案2.) モデル空間でズーム機能を使用して編集中の図面をクローズアップする</t>
+    <rPh sb="1" eb="2">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ヘンシュウチュウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ズメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>① クローズアップする図面のブロック枠を選択します。</t>
+    <rPh sb="11" eb="13">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>② 「ナビゲーションバー」でズーム（選択オブジェクトズーム）を選択します。</t>
+    <rPh sb="18" eb="20">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③ 選択した図形ブロックが拡大表示されます。</t>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ズケイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④ 全てのPICブロックの表示に戻す場合は、ズーム（図面全体ズーム）を選択します。</t>
+    <rPh sb="2" eb="3">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-3-3. 図面の切替え</t>
+    <rPh sb="7" eb="9">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キリカエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(案1.) 選択した図面をレイアウト空間に表示する</t>
+    <rPh sb="1" eb="2">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -658,19 +1014,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>③ 「カレント」レイアウトに選択した図面を表示します。</t>
-    <rPh sb="14" eb="16">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(仮称)を選択します。</t>
     <rPh sb="1" eb="3">
       <t>カショウ</t>
@@ -694,413 +1037,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ビューポートの表示</t>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>矩形内の左上に表示します。</t>
-    <rPh sb="0" eb="3">
-      <t>クケイナイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PIC番号が流動的となる図面のブロック群を左半分に配置します。</t>
-    <rPh sb="6" eb="9">
-      <t>リュウドウテキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
+    <t>③ 「カレント」レイアウトに選択した図面を表示します。</t>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
       <t>ズメン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>グン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ハンブン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成・呼出を行った図面数分、PIC番号の若い順に配置します。</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨビダシ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ワカ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>はビューポートを示します。</t>
-    <rPh sb="8" eb="9">
-      <t>シメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「PIC番号」や「ブロックの枠線」が印刷されないように専用の画層を設けて、この画層の「印刷」</t>
-    <rPh sb="14" eb="16">
-      <t>ワクセン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ガソウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>インサツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロパティをOFFにします。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>印刷イメージ（モノクロ）</t>
-    <rPh sb="0" eb="2">
-      <t>インサツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モデル空間に配置する図面ブロックのサイズは、タイヤの直径等の図面の寸法により変更する必要がある為</t>
-    <rPh sb="3" eb="5">
-      <t>クウカン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>チョッケイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>スンポウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>タメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        600mm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>600mm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1000mm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>＜図面ブロックサイズ例＞</t>
-    <rPh sb="1" eb="3">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モデル空間に配置する図面ブロックは、ビューポートが配置されているレイアウト空間を印刷した際に</t>
-    <rPh sb="25" eb="27">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>クウカン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>サイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑤ 図形ブロックは、基準線設定後に配置されます。</t>
-  </si>
-  <si>
-    <t>テンプレート1（基準線の直径が400mm未満）</t>
-    <rPh sb="8" eb="11">
-      <t>キジュンセン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>チョッケイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テンプレート2（基準線の直径が400～800mm）</t>
-    <rPh sb="8" eb="11">
-      <t>キジュンセン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>チョッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基準線の直径に応じたテンプレートを準備します。</t>
-    <rPh sb="0" eb="3">
-      <t>キジュンセン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>チョッケイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成・編集中の図面を「カレント（仮称）」レイアウトに表示します。</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ヘンシュウチュウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カショウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>円弧に配置する編集文字・マーク類の選択は、モデル空間に切替えてマウスによる選択が可能です。</t>
-    <rPh sb="0" eb="2">
-      <t>エンコ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ヘンシュウモジ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ルイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>クウカン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>キリカエ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>③ 選択した図形ブロックが拡大表示されます。</t>
-    <rPh sb="2" eb="4">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ズケイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カクダイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>④ 全ての図面ブロックの表示に戻す場合は、ズーム（図面全体ズーム）を選択します。</t>
-    <rPh sb="2" eb="3">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ゼンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>② 「ナビゲーションバー」でズーム（選択オブジェクトズーム）を選択します。</t>
-    <rPh sb="18" eb="20">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2-3-3. 図面の切替え</t>
-    <rPh sb="7" eb="9">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キリカエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(案1.) 選択した図面をレイアウト空間に表示する</t>
-    <rPh sb="1" eb="2">
-      <t>アン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>クウカン</t>
     </rPh>
     <rPh sb="21" eb="23">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(案1.) 編集中の図面をレイアウト空間に表示する</t>
-    <rPh sb="1" eb="2">
-      <t>アン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ヘンシュウチュウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>クウカン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(案2.) モデル空間でズーム機能を使用して編集中の図面をクローズアップする</t>
-    <rPh sb="1" eb="2">
-      <t>アン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>クウカン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ヘンシュウチュウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ズメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>① クローズアップする図面のブロック枠を選択します。</t>
-    <rPh sb="11" eb="13">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ワク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1139,64 +1084,6 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>テジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PIC番号</t>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ー</t>
-  </si>
-  <si>
-    <t>タイヤ側面（反セリアル）</t>
-  </si>
-  <si>
-    <t>タイヤ側面（セリアル）</t>
-  </si>
-  <si>
-    <t>Platformマーク（セリアル側）</t>
-  </si>
-  <si>
-    <t>Platformマーク（反セリアル側）</t>
-  </si>
-  <si>
-    <t>セリアル側上部の表題欄</t>
-  </si>
-  <si>
-    <t>ラベリング詳細欄（セリアル側）</t>
-  </si>
-  <si>
-    <t>ラベリング詳細欄（反セリアル側）</t>
-  </si>
-  <si>
-    <t>安全コード</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ー</t>
-  </si>
-  <si>
-    <t>ー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C表</t>
-    <rPh sb="1" eb="2">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>円弧配列</t>
-    <rPh sb="0" eb="2">
-      <t>エンコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハイレツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1240,6 +1127,73 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>テンプレートの構成内容は次の通りです。</t>
+    <rPh sb="7" eb="9">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・モデル空間に配置するPICブロックの作成</t>
+    <rPh sb="4" eb="6">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・レイアウト空間に配置する帳票レイアウトの作成</t>
+    <rPh sb="6" eb="8">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・帳票レイアウトに配置するモデル空間の図面を表示するビューポートの設定</t>
+    <rPh sb="1" eb="3">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>・AT-B図面の属性を定義する為のカスタムプロパティの設定</t>
     <rPh sb="5" eb="7">
       <t>ズメン</t>
@@ -1259,25 +1213,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テンプレートの構成内容は次の通りです。</t>
-    <rPh sb="7" eb="9">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>トオ</t>
+    <t>・基準線や基準円等の作図に必要な線種および画層の設定</t>
+    <rPh sb="1" eb="4">
+      <t>キジュンセン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクズ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センシュ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガソウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3-2. 図面ブロック</t>
-    <rPh sb="5" eb="7">
-      <t>ズメン</t>
+    <t>3-2. PICブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル空間に配置するPICブロックについて示します。</t>
+    <rPh sb="21" eb="22">
+      <t>シメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1285,13 +1258,6 @@
     <t>3-2-1. 要素</t>
     <rPh sb="7" eb="9">
       <t>ヨウソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モデル空間に配置する図面ブロックについて示します。</t>
-    <rPh sb="20" eb="21">
-      <t>シメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1300,32 +1266,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>②</t>
+    <t>図面の領域を示すPICブロック枠を矩形で配置します。</t>
+    <rPh sb="0" eb="2">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>クケイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハイチ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>図面の領域を示す図面ブロック枠を矩形で配置します。</t>
-    <rPh sb="0" eb="2">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リョウイキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>シメ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ワク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>クケイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ハイチ</t>
-    </rPh>
+    <t>②</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1348,6 +1311,56 @@
     <t>3-2-2. 画層</t>
     <rPh sb="7" eb="9">
       <t>ガソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル空間に配置するPICブロックは、ビューポートが配置されているレイアウト空間を印刷した際に</t>
+    <rPh sb="26" eb="28">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「PIC番号」や「ブロックの枠線」が印刷されないように専用の画層を設けて、この画層の「印刷」</t>
+    <rPh sb="14" eb="16">
+      <t>ワクセン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ガソウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>インサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロパティをOFFにします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビューポートの表示</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>印刷イメージ（モノクロ）</t>
+    <rPh sb="0" eb="2">
+      <t>インサツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1356,36 +1369,56 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>円弧配列・C表の固定PIC番号（固定となるPIC番号については検討・確認要）</t>
-    <rPh sb="0" eb="2">
-      <t>エンコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コテイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>コテイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>バンゴウ</t>
+    <t>モデル空間に配置するPICブロックのサイズは、タイヤの直径等の図面の寸法により変更する必要がある為</t>
+    <rPh sb="3" eb="5">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>チョッケイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナド</t>
     </rPh>
     <rPh sb="31" eb="33">
-      <t>ケントウ</t>
+      <t>ズメン</t>
     </rPh>
     <rPh sb="34" eb="36">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ヨウ</t>
+      <t>スンポウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基準線の直径に応じたテンプレートを準備します。</t>
+    <rPh sb="0" eb="3">
+      <t>キジュンセン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョッケイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜PICブロックサイズ例＞</t>
+    <rPh sb="11" eb="12">
+      <t>レイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1412,6 +1445,48 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>テンプレート1（基準線の直径が400mm未満）</t>
+    <rPh sb="8" eb="11">
+      <t>キジュンセン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョッケイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレート2（基準線の直径が400～800mm）</t>
+    <rPh sb="8" eb="11">
+      <t>キジュンセン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        600mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>600mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-3. 帳票レイアウトとビューポート</t>
+    <rPh sb="5" eb="7">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>レイアウト空間に配置する帳票（印刷・PDF出力）レイアウトについて示します。</t>
     <rPh sb="12" eb="14">
       <t>チョウヒョウ</t>
@@ -1450,6 +1525,52 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赤枠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の情報は、カスタムプロパティに設定した情報を表示する事が可能です。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>アカワク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1529,52 +1650,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>赤枠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>の情報は、カスタムプロパティに設定した情報を表示する事が可能です。</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>アカワク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3-3-3. Bottom形状</t>
     <rPh sb="13" eb="15">
       <t>ケイジョウ</t>
@@ -1601,13 +1676,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3-3. 帳票レイアウトとビューポート</t>
-    <rPh sb="5" eb="7">
-      <t>チョウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3-3-4. Top/Bottom形状の配置情報</t>
     <rPh sb="17" eb="19">
       <t>ケイジョウ</t>
@@ -1646,7 +1714,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※ 以下のレイアウトの図面配置に関しては、ご相談させて頂く予定です。</t>
+    <t>※ 以下のレイアウトの図面配置に関しては、対象外とさせていただきます。</t>
     <rPh sb="2" eb="4">
       <t>イカ</t>
     </rPh>
@@ -1659,14 +1727,8 @@
     <rPh sb="16" eb="17">
       <t>カン</t>
     </rPh>
-    <rPh sb="22" eb="24">
-      <t>ソウダン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>イタダ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヨテイ</t>
+    <rPh sb="21" eb="24">
+      <t>タイショウガイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1678,6 +1740,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>AT-B図面の属性を定義する為のカスタムプロパティの名称（名前列）を設定します。</t>
+    <rPh sb="26" eb="28">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>同プロパティの値は、図面の保存ファイル名や帳票レイアウト中の可変テキストへの出力に使用します。</t>
     <rPh sb="0" eb="1">
       <t>ドウ</t>
@@ -1719,107 +1794,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AT-B図面の属性を定義する為のカスタムプロパティの名称（名前列）を設定します。</t>
-    <rPh sb="26" eb="28">
-      <t>メイショウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>レツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>以上.</t>
     <rPh sb="0" eb="2">
       <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・基準線や基準円等の作図に必要な線種および画層の設定</t>
-    <rPh sb="1" eb="4">
-      <t>キジュンセン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キジュン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サクズ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>センシュ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ガソウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・モデル空間に配置する図面ブロックの作成</t>
-    <rPh sb="4" eb="6">
-      <t>クウカン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・レイアウト空間に配置する帳票レイアウトの作成</t>
-    <rPh sb="6" eb="8">
-      <t>クウカン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>チョウヒョウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・帳票レイアウトに配置するモデル空間の図面を表示するビューポートの設定</t>
-    <rPh sb="1" eb="3">
-      <t>チョウヒョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>クウカン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1827,8 +1804,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2105,7 +2082,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="42" name="グループ化 41"/>
+        <xdr:cNvPr id="42" name="グループ化 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2118,7 +2101,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="図 1"/>
+          <xdr:cNvPr id="2" name="図 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -2163,7 +2152,13 @@
       </xdr:pic>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="12" name="グループ化 11"/>
+          <xdr:cNvPr id="12" name="グループ化 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2176,7 +2171,13 @@
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="図 4"/>
+            <xdr:cNvPr id="5" name="図 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
             </xdr:cNvPicPr>
@@ -2221,7 +2222,13 @@
         </xdr:pic>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+            <xdr:cNvPr id="7" name="正方形/長方形 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2266,7 +2273,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+            <xdr:cNvPr id="8" name="正方形/長方形 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2312,7 +2325,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+          <xdr:cNvPr id="11" name="正方形/長方形 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2357,7 +2376,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="15" name="カギ線コネクタ 14"/>
+          <xdr:cNvPr id="15" name="カギ線コネクタ 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="8" idx="3"/>
           </xdr:cNvCxnSpPr>
@@ -2393,7 +2418,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+          <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2425,7 +2456,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
+          <xdr:cNvPr id="28" name="テキスト ボックス 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2477,7 +2514,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="29" name="図 28"/>
+          <xdr:cNvPr id="29" name="図 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -2522,7 +2565,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
+          <xdr:cNvPr id="30" name="テキスト ボックス 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2590,7 +2639,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="34" name="グループ化 33"/>
+        <xdr:cNvPr id="34" name="グループ化 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2603,7 +2658,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="32" name="図 31"/>
+          <xdr:cNvPr id="32" name="図 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -2643,7 +2704,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="楕円 32"/>
+          <xdr:cNvPr id="33" name="楕円 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2704,7 +2771,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="117" name="グループ化 116"/>
+        <xdr:cNvPr id="117" name="グループ化 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2717,7 +2790,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="81" name="グループ化 80"/>
+          <xdr:cNvPr id="81" name="グループ化 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2730,7 +2809,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+            <xdr:cNvPr id="35" name="正方形/長方形 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2772,7 +2857,13 @@
         </xdr:sp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="39" name="グループ化 38"/>
+            <xdr:cNvPr id="39" name="グループ化 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -2785,7 +2876,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+              <xdr:cNvPr id="36" name="正方形/長方形 35">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -2836,7 +2933,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+              <xdr:cNvPr id="37" name="正方形/長方形 36">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -2898,7 +3001,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+              <xdr:cNvPr id="38" name="正方形/長方形 37">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -2961,7 +3070,13 @@
         </xdr:grpSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="41" name="直線コネクタ 40"/>
+            <xdr:cNvPr id="41" name="直線コネクタ 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="35" idx="0"/>
               <a:endCxn id="35" idx="2"/>
@@ -2999,7 +3114,13 @@
         </xdr:cxnSp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="56" name="グループ化 55"/>
+            <xdr:cNvPr id="56" name="グループ化 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -3012,7 +3133,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+              <xdr:cNvPr id="46" name="正方形/長方形 45">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3069,7 +3196,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="47" name="正方形/長方形 46"/>
+              <xdr:cNvPr id="47" name="正方形/長方形 46">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3126,7 +3259,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+              <xdr:cNvPr id="48" name="正方形/長方形 47">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3183,7 +3322,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="49" name="正方形/長方形 48"/>
+              <xdr:cNvPr id="49" name="正方形/長方形 48">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3240,7 +3385,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="50" name="正方形/長方形 49"/>
+              <xdr:cNvPr id="50" name="正方形/長方形 49">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3297,7 +3448,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+              <xdr:cNvPr id="51" name="正方形/長方形 50">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3354,7 +3511,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+              <xdr:cNvPr id="52" name="正方形/長方形 51">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3411,7 +3574,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="53" name="正方形/長方形 52"/>
+              <xdr:cNvPr id="53" name="正方形/長方形 52">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3468,7 +3637,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="54" name="正方形/長方形 53"/>
+              <xdr:cNvPr id="54" name="正方形/長方形 53">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3525,7 +3700,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="55" name="正方形/長方形 54"/>
+              <xdr:cNvPr id="55" name="正方形/長方形 54">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3583,7 +3764,13 @@
         </xdr:grpSp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="57" name="グループ化 56"/>
+            <xdr:cNvPr id="57" name="グループ化 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -3596,7 +3783,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="58" name="正方形/長方形 57"/>
+              <xdr:cNvPr id="58" name="正方形/長方形 57">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3653,7 +3846,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="59" name="正方形/長方形 58"/>
+              <xdr:cNvPr id="59" name="正方形/長方形 58">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3710,7 +3909,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="60" name="正方形/長方形 59"/>
+              <xdr:cNvPr id="60" name="正方形/長方形 59">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3767,7 +3972,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="61" name="正方形/長方形 60"/>
+              <xdr:cNvPr id="61" name="正方形/長方形 60">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3824,7 +4035,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="62" name="正方形/長方形 61"/>
+              <xdr:cNvPr id="62" name="正方形/長方形 61">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3881,7 +4098,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="63" name="正方形/長方形 62"/>
+              <xdr:cNvPr id="63" name="正方形/長方形 62">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3938,7 +4161,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="64" name="正方形/長方形 63"/>
+              <xdr:cNvPr id="64" name="正方形/長方形 63">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3995,7 +4224,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="65" name="正方形/長方形 64"/>
+              <xdr:cNvPr id="65" name="正方形/長方形 64">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -4052,7 +4287,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="66" name="正方形/長方形 65"/>
+              <xdr:cNvPr id="66" name="正方形/長方形 65">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -4109,7 +4350,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="67" name="正方形/長方形 66"/>
+              <xdr:cNvPr id="67" name="正方形/長方形 66">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -4167,7 +4414,13 @@
         </xdr:grpSp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="68" name="グループ化 67"/>
+            <xdr:cNvPr id="68" name="グループ化 67">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -4180,7 +4433,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="69" name="正方形/長方形 68"/>
+              <xdr:cNvPr id="69" name="正方形/長方形 68">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -4237,7 +4496,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="70" name="正方形/長方形 69"/>
+              <xdr:cNvPr id="70" name="正方形/長方形 69">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -4294,7 +4559,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="71" name="正方形/長方形 70"/>
+              <xdr:cNvPr id="71" name="正方形/長方形 70">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -4351,7 +4622,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="72" name="正方形/長方形 71"/>
+              <xdr:cNvPr id="72" name="正方形/長方形 71">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -4408,7 +4685,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="74" name="正方形/長方形 73"/>
+              <xdr:cNvPr id="74" name="正方形/長方形 73">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -4465,7 +4748,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="75" name="正方形/長方形 74"/>
+              <xdr:cNvPr id="75" name="正方形/長方形 74">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -4522,7 +4811,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="76" name="正方形/長方形 75"/>
+              <xdr:cNvPr id="76" name="正方形/長方形 75">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -4579,7 +4874,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="77" name="正方形/長方形 76"/>
+              <xdr:cNvPr id="77" name="正方形/長方形 76">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -4636,7 +4937,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="78" name="正方形/長方形 77"/>
+              <xdr:cNvPr id="78" name="正方形/長方形 77">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -4694,7 +5001,13 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="79" name="テキスト ボックス 78"/>
+            <xdr:cNvPr id="79" name="テキスト ボックス 78">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4743,7 +5056,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="80" name="テキスト ボックス 79"/>
+            <xdr:cNvPr id="80" name="テキスト ボックス 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4793,7 +5112,13 @@
       </xdr:grpSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="83" name="カギ線コネクタ 82"/>
+          <xdr:cNvPr id="83" name="カギ線コネクタ 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4831,7 +5156,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="103" name="カギ線コネクタ 102"/>
+          <xdr:cNvPr id="103" name="カギ線コネクタ 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4885,7 +5216,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="40" name="グループ化 39"/>
+        <xdr:cNvPr id="40" name="グループ化 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4898,7 +5235,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="92" name="図 91"/>
+          <xdr:cNvPr id="92" name="図 91">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -4938,7 +5281,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="93" name="楕円 92"/>
+          <xdr:cNvPr id="93" name="楕円 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4999,7 +5348,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="43" name="グループ化 42"/>
+        <xdr:cNvPr id="43" name="グループ化 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5012,7 +5367,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="98" name="正方形/長方形 97"/>
+          <xdr:cNvPr id="98" name="正方形/長方形 97">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5054,7 +5415,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="99" name="グループ化 98"/>
+          <xdr:cNvPr id="99" name="グループ化 98">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5067,7 +5434,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="138" name="正方形/長方形 137"/>
+            <xdr:cNvPr id="138" name="正方形/長方形 137">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5116,7 +5489,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="139" name="正方形/長方形 138"/>
+            <xdr:cNvPr id="139" name="正方形/長方形 138">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5167,7 +5546,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="140" name="正方形/長方形 139"/>
+            <xdr:cNvPr id="140" name="正方形/長方形 139">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5230,7 +5615,13 @@
       </xdr:grpSp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="143" name="図 142"/>
+          <xdr:cNvPr id="143" name="図 142">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -5286,7 +5677,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="左矢印 44"/>
+        <xdr:cNvPr id="45" name="左矢印 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5340,7 +5737,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="240" name="グループ化 239"/>
+        <xdr:cNvPr id="240" name="グループ化 239">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5353,7 +5756,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="145" name="グループ化 144"/>
+          <xdr:cNvPr id="145" name="グループ化 144">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5366,7 +5775,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="148" name="正方形/長方形 147"/>
+            <xdr:cNvPr id="148" name="正方形/長方形 147">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5408,7 +5823,13 @@
         </xdr:sp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="149" name="グループ化 148"/>
+            <xdr:cNvPr id="149" name="グループ化 148">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -5421,7 +5842,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="185" name="正方形/長方形 184"/>
+              <xdr:cNvPr id="185" name="正方形/長方形 184">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B9000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -5472,7 +5899,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="186" name="正方形/長方形 185"/>
+              <xdr:cNvPr id="186" name="正方形/長方形 185">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BA000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -5521,7 +5954,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="187" name="正方形/長方形 186"/>
+              <xdr:cNvPr id="187" name="正方形/長方形 186">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BB000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -5584,7 +6023,13 @@
         </xdr:grpSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="150" name="直線コネクタ 149"/>
+            <xdr:cNvPr id="150" name="直線コネクタ 149">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="148" idx="0"/>
               <a:endCxn id="148" idx="2"/>
@@ -5622,7 +6067,13 @@
         </xdr:cxnSp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="151" name="グループ化 150"/>
+            <xdr:cNvPr id="151" name="グループ化 150">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -5635,7 +6086,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="175" name="正方形/長方形 174"/>
+              <xdr:cNvPr id="175" name="正方形/長方形 174">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AF000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -5692,7 +6149,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="176" name="正方形/長方形 175"/>
+              <xdr:cNvPr id="176" name="正方形/長方形 175">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B0000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -5749,7 +6212,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="177" name="正方形/長方形 176"/>
+              <xdr:cNvPr id="177" name="正方形/長方形 176">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B1000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -5806,7 +6275,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="178" name="正方形/長方形 177"/>
+              <xdr:cNvPr id="178" name="正方形/長方形 177">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B2000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -5863,7 +6338,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="179" name="正方形/長方形 178"/>
+              <xdr:cNvPr id="179" name="正方形/長方形 178">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B3000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -5920,7 +6401,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="180" name="正方形/長方形 179"/>
+              <xdr:cNvPr id="180" name="正方形/長方形 179">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B4000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -5977,7 +6464,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="181" name="正方形/長方形 180"/>
+              <xdr:cNvPr id="181" name="正方形/長方形 180">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B5000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -6034,7 +6527,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="182" name="正方形/長方形 181"/>
+              <xdr:cNvPr id="182" name="正方形/長方形 181">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B6000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -6091,7 +6590,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="183" name="正方形/長方形 182"/>
+              <xdr:cNvPr id="183" name="正方形/長方形 182">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B7000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -6148,7 +6653,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="184" name="正方形/長方形 183"/>
+              <xdr:cNvPr id="184" name="正方形/長方形 183">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B8000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -6206,7 +6717,13 @@
         </xdr:grpSp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="152" name="グループ化 151"/>
+            <xdr:cNvPr id="152" name="グループ化 151">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -6219,7 +6736,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="165" name="正方形/長方形 164"/>
+              <xdr:cNvPr id="165" name="正方形/長方形 164">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -6276,7 +6799,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="166" name="正方形/長方形 165"/>
+              <xdr:cNvPr id="166" name="正方形/長方形 165">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A6000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -6333,7 +6862,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="167" name="正方形/長方形 166"/>
+              <xdr:cNvPr id="167" name="正方形/長方形 166">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A7000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -6401,7 +6936,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="168" name="正方形/長方形 167"/>
+              <xdr:cNvPr id="168" name="正方形/長方形 167">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A8000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -6458,7 +6999,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="169" name="正方形/長方形 168"/>
+              <xdr:cNvPr id="169" name="正方形/長方形 168">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A9000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -6515,7 +7062,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="170" name="正方形/長方形 169"/>
+              <xdr:cNvPr id="170" name="正方形/長方形 169">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AA000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -6572,7 +7125,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="171" name="正方形/長方形 170"/>
+              <xdr:cNvPr id="171" name="正方形/長方形 170">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AB000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -6629,7 +7188,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="172" name="正方形/長方形 171"/>
+              <xdr:cNvPr id="172" name="正方形/長方形 171">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AC000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -6686,7 +7251,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="173" name="正方形/長方形 172"/>
+              <xdr:cNvPr id="173" name="正方形/長方形 172">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AD000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -6743,7 +7314,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="174" name="正方形/長方形 173"/>
+              <xdr:cNvPr id="174" name="正方形/長方形 173">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AE000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -6801,7 +7378,13 @@
         </xdr:grpSp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="153" name="グループ化 152"/>
+            <xdr:cNvPr id="153" name="グループ化 152">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -6814,7 +7397,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="156" name="正方形/長方形 155"/>
+              <xdr:cNvPr id="156" name="正方形/長方形 155">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -6871,7 +7460,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="157" name="正方形/長方形 156"/>
+              <xdr:cNvPr id="157" name="正方形/長方形 156">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -6928,7 +7523,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="158" name="正方形/長方形 157"/>
+              <xdr:cNvPr id="158" name="正方形/長方形 157">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009E000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -6985,7 +7586,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="159" name="正方形/長方形 158"/>
+              <xdr:cNvPr id="159" name="正方形/長方形 158">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009F000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -7042,7 +7649,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="160" name="正方形/長方形 159"/>
+              <xdr:cNvPr id="160" name="正方形/長方形 159">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -7099,7 +7712,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="161" name="正方形/長方形 160"/>
+              <xdr:cNvPr id="161" name="正方形/長方形 160">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -7156,7 +7775,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="162" name="正方形/長方形 161"/>
+              <xdr:cNvPr id="162" name="正方形/長方形 161">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -7213,7 +7838,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="163" name="正方形/長方形 162"/>
+              <xdr:cNvPr id="163" name="正方形/長方形 162">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -7270,7 +7901,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="164" name="正方形/長方形 163"/>
+              <xdr:cNvPr id="164" name="正方形/長方形 163">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A4000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -7329,7 +7966,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="188" name="上矢印 187"/>
+          <xdr:cNvPr id="188" name="上矢印 187">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BC000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7401,7 +8044,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="198" name="グループ化 197"/>
+        <xdr:cNvPr id="198" name="グループ化 197">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -7414,7 +8063,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="191" name="正方形/長方形 190"/>
+          <xdr:cNvPr id="191" name="正方形/長方形 190">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BF000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7456,7 +8111,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="192" name="グループ化 191"/>
+          <xdr:cNvPr id="192" name="グループ化 191">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -7469,7 +8130,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="194" name="正方形/長方形 193"/>
+            <xdr:cNvPr id="194" name="正方形/長方形 193">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C2000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7518,7 +8185,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="195" name="正方形/長方形 194"/>
+            <xdr:cNvPr id="195" name="正方形/長方形 194">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C3000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7569,7 +8242,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="196" name="正方形/長方形 195"/>
+            <xdr:cNvPr id="196" name="正方形/長方形 195">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C4000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7632,7 +8311,13 @@
       </xdr:grpSp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="189" name="図 188"/>
+          <xdr:cNvPr id="189" name="図 188">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BD000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -7677,7 +8362,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="197" name="テキスト ボックス 196"/>
+          <xdr:cNvPr id="197" name="テキスト ボックス 196">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7745,7 +8436,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="199" name="テキスト ボックス 198"/>
+        <xdr:cNvPr id="199" name="テキスト ボックス 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7819,7 +8516,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="241" name="グループ化 240"/>
+        <xdr:cNvPr id="241" name="グループ化 240">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -7832,7 +8535,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="201" name="正方形/長方形 200"/>
+          <xdr:cNvPr id="201" name="正方形/長方形 200">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C9000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7874,7 +8583,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="202" name="グループ化 201"/>
+          <xdr:cNvPr id="202" name="グループ化 201">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CA000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -7887,7 +8602,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="236" name="正方形/長方形 235"/>
+            <xdr:cNvPr id="236" name="正方形/長方形 235">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EC000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7938,7 +8659,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="237" name="正方形/長方形 236"/>
+            <xdr:cNvPr id="237" name="正方形/長方形 236">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000ED000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7987,7 +8714,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="238" name="正方形/長方形 237"/>
+            <xdr:cNvPr id="238" name="正方形/長方形 237">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EE000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8050,7 +8783,13 @@
       </xdr:grpSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="203" name="直線コネクタ 202"/>
+          <xdr:cNvPr id="203" name="直線コネクタ 202">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="201" idx="0"/>
             <a:endCxn id="201" idx="2"/>
@@ -8088,7 +8827,13 @@
       </xdr:cxnSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="204" name="グループ化 203"/>
+          <xdr:cNvPr id="204" name="グループ化 203">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CC000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -8101,7 +8846,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="226" name="正方形/長方形 225"/>
+            <xdr:cNvPr id="226" name="正方形/長方形 225">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E2000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8158,7 +8909,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="227" name="正方形/長方形 226"/>
+            <xdr:cNvPr id="227" name="正方形/長方形 226">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E3000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8215,7 +8972,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="228" name="正方形/長方形 227"/>
+            <xdr:cNvPr id="228" name="正方形/長方形 227">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E4000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8272,7 +9035,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="229" name="正方形/長方形 228"/>
+            <xdr:cNvPr id="229" name="正方形/長方形 228">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E5000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8329,7 +9098,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="230" name="正方形/長方形 229"/>
+            <xdr:cNvPr id="230" name="正方形/長方形 229">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E6000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8386,7 +9161,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="231" name="正方形/長方形 230"/>
+            <xdr:cNvPr id="231" name="正方形/長方形 230">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E7000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8443,7 +9224,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="232" name="正方形/長方形 231"/>
+            <xdr:cNvPr id="232" name="正方形/長方形 231">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E8000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8500,7 +9287,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="233" name="正方形/長方形 232"/>
+            <xdr:cNvPr id="233" name="正方形/長方形 232">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E9000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8557,7 +9350,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="234" name="正方形/長方形 233"/>
+            <xdr:cNvPr id="234" name="正方形/長方形 233">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EA000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8614,7 +9413,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="235" name="正方形/長方形 234"/>
+            <xdr:cNvPr id="235" name="正方形/長方形 234">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EB000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8672,7 +9477,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="205" name="グループ化 204"/>
+          <xdr:cNvPr id="205" name="グループ化 204">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CD000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -8685,7 +9496,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="216" name="正方形/長方形 215"/>
+            <xdr:cNvPr id="216" name="正方形/長方形 215">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D8000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8742,7 +9559,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="217" name="正方形/長方形 216"/>
+            <xdr:cNvPr id="217" name="正方形/長方形 216">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D9000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8799,7 +9622,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="218" name="正方形/長方形 217"/>
+            <xdr:cNvPr id="218" name="正方形/長方形 217">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DA000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8867,7 +9696,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="219" name="正方形/長方形 218"/>
+            <xdr:cNvPr id="219" name="正方形/長方形 218">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DB000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8924,7 +9759,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="220" name="正方形/長方形 219"/>
+            <xdr:cNvPr id="220" name="正方形/長方形 219">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8981,7 +9822,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="221" name="正方形/長方形 220"/>
+            <xdr:cNvPr id="221" name="正方形/長方形 220">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DD000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9038,7 +9885,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="222" name="正方形/長方形 221"/>
+            <xdr:cNvPr id="222" name="正方形/長方形 221">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DE000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9095,7 +9948,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="223" name="正方形/長方形 222"/>
+            <xdr:cNvPr id="223" name="正方形/長方形 222">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DF000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9152,7 +10011,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="224" name="正方形/長方形 223"/>
+            <xdr:cNvPr id="224" name="正方形/長方形 223">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E0000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9209,7 +10074,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="225" name="正方形/長方形 224"/>
+            <xdr:cNvPr id="225" name="正方形/長方形 224">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E1000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9267,7 +10138,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="206" name="グループ化 205"/>
+          <xdr:cNvPr id="206" name="グループ化 205">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CE000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -9280,7 +10157,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="207" name="正方形/長方形 206"/>
+            <xdr:cNvPr id="207" name="正方形/長方形 206">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CF000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9337,7 +10220,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="208" name="正方形/長方形 207"/>
+            <xdr:cNvPr id="208" name="正方形/長方形 207">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D0000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9394,7 +10283,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="209" name="正方形/長方形 208"/>
+            <xdr:cNvPr id="209" name="正方形/長方形 208">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D1000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9451,7 +10346,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="210" name="正方形/長方形 209"/>
+            <xdr:cNvPr id="210" name="正方形/長方形 209">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D2000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9508,7 +10409,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="211" name="正方形/長方形 210"/>
+            <xdr:cNvPr id="211" name="正方形/長方形 210">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D3000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9565,7 +10472,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="212" name="正方形/長方形 211"/>
+            <xdr:cNvPr id="212" name="正方形/長方形 211">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D4000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9622,7 +10535,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="213" name="正方形/長方形 212"/>
+            <xdr:cNvPr id="213" name="正方形/長方形 212">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D5000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9679,7 +10598,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="214" name="正方形/長方形 213"/>
+            <xdr:cNvPr id="214" name="正方形/長方形 213">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D6000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9736,7 +10661,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="215" name="正方形/長方形 214"/>
+            <xdr:cNvPr id="215" name="正方形/長方形 214">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D7000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9794,7 +10725,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="239" name="上矢印 238"/>
+          <xdr:cNvPr id="239" name="上矢印 238">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EF000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9866,7 +10803,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="242" name="左矢印 241"/>
+        <xdr:cNvPr id="242" name="左矢印 241">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9920,7 +10863,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="243" name="テキスト ボックス 242"/>
+        <xdr:cNvPr id="243" name="テキスト ボックス 242">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9994,7 +10943,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="244" name="下矢印 243"/>
+        <xdr:cNvPr id="244" name="下矢印 243">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10048,7 +11003,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="257" name="テキスト ボックス 256"/>
+        <xdr:cNvPr id="257" name="テキスト ボックス 256">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10110,7 +11071,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="258" name="テキスト ボックス 257"/>
+        <xdr:cNvPr id="258" name="テキスト ボックス 257">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10172,7 +11139,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="261" name="テキスト ボックス 260"/>
+        <xdr:cNvPr id="261" name="テキスト ボックス 260">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10234,7 +11207,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="グループ化 13"/>
+        <xdr:cNvPr id="14" name="グループ化 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -10247,7 +11226,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="193" name="図 192"/>
+          <xdr:cNvPr id="193" name="図 192">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -10287,7 +11272,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="247" name="上矢印 246"/>
+          <xdr:cNvPr id="247" name="上矢印 246">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F7000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10343,7 +11334,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="254" name="図 253"/>
+          <xdr:cNvPr id="254" name="図 253">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FE000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -10383,7 +11380,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="右矢印 2"/>
+          <xdr:cNvPr id="3" name="右矢印 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10422,7 +11425,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="256" name="右矢印 255"/>
+          <xdr:cNvPr id="256" name="右矢印 255">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000000010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10461,7 +11470,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+          <xdr:cNvPr id="4" name="テキスト ボックス 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10508,7 +11523,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="259" name="テキスト ボックス 258"/>
+          <xdr:cNvPr id="259" name="テキスト ボックス 258">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10555,7 +11576,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="260" name="テキスト ボックス 259"/>
+          <xdr:cNvPr id="260" name="テキスト ボックス 259">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10602,7 +11629,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="262" name="図 261"/>
+          <xdr:cNvPr id="262" name="図 261">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -10642,7 +11675,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="263" name="図 262"/>
+          <xdr:cNvPr id="263" name="図 262">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -10682,7 +11721,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="左矢印 5"/>
+          <xdr:cNvPr id="6" name="左矢印 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10727,7 +11772,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="上矢印 12"/>
+          <xdr:cNvPr id="13" name="上矢印 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10772,7 +11823,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="264" name="テキスト ボックス 263"/>
+          <xdr:cNvPr id="264" name="テキスト ボックス 263">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10845,7 +11902,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10900,7 +11963,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="右矢印 2"/>
+        <xdr:cNvPr id="3" name="右矢印 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10954,7 +12023,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11014,7 +12089,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="グループ化 18"/>
+        <xdr:cNvPr id="19" name="グループ化 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -11027,7 +12108,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="図 5"/>
+          <xdr:cNvPr id="6" name="図 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -11072,7 +12159,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+          <xdr:cNvPr id="7" name="テキスト ボックス 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11124,7 +12217,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="右中かっこ 7"/>
+          <xdr:cNvPr id="8" name="右中かっこ 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11169,7 +12268,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="右中かっこ 8"/>
+          <xdr:cNvPr id="9" name="右中かっこ 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11236,7 +12341,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="グループ化 9"/>
+        <xdr:cNvPr id="10" name="グループ化 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -11249,7 +12360,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="11" name="図 10"/>
+          <xdr:cNvPr id="11" name="図 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -11294,7 +12411,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+          <xdr:cNvPr id="12" name="テキスト ボックス 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11346,7 +12469,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="右中かっこ 12"/>
+          <xdr:cNvPr id="13" name="右中かっこ 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11391,7 +12520,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="右中かっこ 13"/>
+          <xdr:cNvPr id="14" name="右中かっこ 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11458,7 +12593,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18" name="グループ化 17"/>
+        <xdr:cNvPr id="18" name="グループ化 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -11471,7 +12612,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="15" name="図 14"/>
+          <xdr:cNvPr id="15" name="図 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -11516,7 +12663,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+          <xdr:cNvPr id="17" name="テキスト ボックス 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11584,7 +12737,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="24" name="グループ化 23"/>
+        <xdr:cNvPr id="24" name="グループ化 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -11597,7 +12756,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="21" name="図 20"/>
+          <xdr:cNvPr id="21" name="図 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -11637,7 +12802,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+          <xdr:cNvPr id="22" name="正方形/長方形 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11682,7 +12853,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+          <xdr:cNvPr id="23" name="正方形/長方形 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11727,7 +12904,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+          <xdr:cNvPr id="25" name="正方形/長方形 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11772,7 +12955,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+          <xdr:cNvPr id="26" name="正方形/長方形 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11833,7 +13022,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="46" name="グループ化 45"/>
+        <xdr:cNvPr id="46" name="グループ化 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -11846,7 +13041,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="27" name="図 26"/>
+          <xdr:cNvPr id="27" name="図 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -11886,7 +13087,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+          <xdr:cNvPr id="28" name="正方形/長方形 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11931,7 +13138,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+          <xdr:cNvPr id="29" name="正方形/長方形 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11976,7 +13189,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+          <xdr:cNvPr id="30" name="正方形/長方形 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12021,7 +13240,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+          <xdr:cNvPr id="31" name="正方形/長方形 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12066,7 +13291,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+          <xdr:cNvPr id="32" name="正方形/長方形 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12111,7 +13342,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+          <xdr:cNvPr id="33" name="正方形/長方形 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12156,7 +13393,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+          <xdr:cNvPr id="34" name="正方形/長方形 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12201,7 +13444,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+          <xdr:cNvPr id="35" name="正方形/長方形 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12262,7 +13511,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="54" name="グループ化 53"/>
+        <xdr:cNvPr id="54" name="グループ化 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -12275,7 +13530,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="37" name="図 36"/>
+          <xdr:cNvPr id="37" name="図 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -12315,7 +13576,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+          <xdr:cNvPr id="38" name="正方形/長方形 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12360,7 +13627,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+          <xdr:cNvPr id="39" name="正方形/長方形 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12405,7 +13678,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+          <xdr:cNvPr id="40" name="正方形/長方形 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12450,7 +13729,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+          <xdr:cNvPr id="41" name="正方形/長方形 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12495,7 +13780,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+          <xdr:cNvPr id="42" name="正方形/長方形 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12540,7 +13831,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+          <xdr:cNvPr id="43" name="正方形/長方形 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12585,7 +13882,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+          <xdr:cNvPr id="44" name="正方形/長方形 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12630,7 +13933,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+          <xdr:cNvPr id="45" name="正方形/長方形 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12689,105 +13998,52 @@
       <xdr:row>153</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="58" name="グループ化 57"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1247776" y="33585151"/>
-          <a:ext cx="4438620" cy="3124200"/>
-          <a:chOff x="1247776" y="33280351"/>
-          <a:chExt cx="4438620" cy="3124200"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="49" name="図 48"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="1247776" y="33280351"/>
-            <a:ext cx="4438620" cy="3124200"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="図 48">
           <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
             </a:ext>
           </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="正方形/長方形 52"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4924424" y="36109275"/>
-            <a:ext cx="609601" cy="247649"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1243694" y="33545690"/>
+          <a:ext cx="4448145" cy="3124200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -12803,105 +14059,52 @@
       <xdr:row>153</xdr:row>
       <xdr:rowOff>106350</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="59" name="グループ化 58"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6276976" y="33604201"/>
-          <a:ext cx="4448174" cy="3144824"/>
-          <a:chOff x="6276976" y="33299401"/>
-          <a:chExt cx="4448174" cy="3144824"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="50" name="図 49"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="6276976" y="33299401"/>
-            <a:ext cx="4448174" cy="3144824"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="図 49">
           <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
             </a:ext>
           </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="55" name="正方形/長方形 54"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9972674" y="36137850"/>
-            <a:ext cx="628651" cy="247651"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6282419" y="33564740"/>
+          <a:ext cx="4457699" cy="3144824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -12917,105 +14120,52 @@
       <xdr:row>166</xdr:row>
       <xdr:rowOff>227769</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="61" name="グループ化 60"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6267451" y="36871276"/>
-          <a:ext cx="4438650" cy="3094793"/>
-          <a:chOff x="6267451" y="36633151"/>
-          <a:chExt cx="4438650" cy="3094793"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="52" name="図 51"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="6267451" y="36633151"/>
-            <a:ext cx="4438650" cy="3094793"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="図 51">
           <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
             </a:ext>
           </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="56" name="正方形/長方形 55"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9934574" y="39443026"/>
-            <a:ext cx="628651" cy="276226"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6272894" y="36831815"/>
+          <a:ext cx="4448175" cy="3094793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -13031,105 +14181,52 @@
       <xdr:row>167</xdr:row>
       <xdr:rowOff>22630</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="60" name="グループ化 59"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1247776" y="36871276"/>
-          <a:ext cx="4457700" cy="3127779"/>
-          <a:chOff x="1247776" y="36633151"/>
-          <a:chExt cx="4457700" cy="3127779"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="51" name="図 50"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="1247776" y="36633151"/>
-            <a:ext cx="4457700" cy="3127779"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="図 50">
           <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
             </a:ext>
           </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="57" name="正方形/長方形 56"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4914899" y="39471600"/>
-            <a:ext cx="647701" cy="247649"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1243694" y="36831815"/>
+          <a:ext cx="4467225" cy="3127779"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -13147,7 +14244,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="図 61"/>
+        <xdr:cNvPr id="62" name="図 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13435,12 +14538,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:W149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="1.875" customWidth="1"/>
     <col min="2" max="2" width="3.25" customWidth="1"/>
@@ -13449,474 +14554,474 @@
     <col min="5" max="5" width="2.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="24" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4" ht="24">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4">
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4">
       <c r="C4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="24" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" ht="24">
       <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="19.5">
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="D11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C7" s="2" t="s">
-        <v>2</v>
+    <row r="12" spans="2:4">
+      <c r="D12" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D8" t="s">
+    <row r="13" spans="2:4">
+      <c r="D13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D12" t="s">
+    <row r="14" spans="2:4">
+      <c r="D14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D13" t="s">
+    <row r="15" spans="2:4">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:4">
       <c r="D16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:11">
       <c r="D18" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:11">
       <c r="K29" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:11">
       <c r="E31" s="1"/>
     </row>
-    <row r="34" spans="3:6" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:6" ht="19.5">
       <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="D35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="D36" s="1" t="s">
-        <v>16</v>
+    <row r="35" spans="3:6">
+      <c r="D35" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="E37" t="s">
-        <v>15</v>
+    <row r="36" spans="3:6">
+      <c r="D36" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="D45" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="E46" t="s">
+    <row r="37" spans="3:6">
+      <c r="E37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="E47" t="s">
+    <row r="45" spans="3:6">
+      <c r="D45" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="F48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="E49" t="s">
+    <row r="46" spans="3:6">
+      <c r="E46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="F50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="E51" t="s">
+    <row r="47" spans="3:6">
+      <c r="E47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="F52" t="s">
-        <v>57</v>
+    <row r="48" spans="3:6">
+      <c r="F48" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="53" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="E53" t="s">
-        <v>68</v>
+    <row r="49" spans="5:23">
+      <c r="E49" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="54" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="N54" s="1" t="s">
-        <v>112</v>
+    <row r="50" spans="5:23">
+      <c r="F50" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="55" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="51" spans="5:23">
+      <c r="E51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="5:23">
+      <c r="F52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="5:23">
+      <c r="E53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="5:23">
+      <c r="N54" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="5:23">
       <c r="N55" s="15" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="O55" s="18" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="P55" s="18"/>
       <c r="Q55" s="18"/>
       <c r="R55" s="18"/>
       <c r="S55" s="18"/>
       <c r="T55" s="18" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="U55" s="18"/>
       <c r="V55" s="18"/>
       <c r="W55" s="18"/>
     </row>
-    <row r="56" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="56" spans="5:23">
       <c r="N56" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
       <c r="S56" s="7"/>
       <c r="T56" s="5" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
       <c r="W56" s="7"/>
     </row>
-    <row r="57" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="57" spans="5:23">
       <c r="N57" s="4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
       <c r="S57" s="7"/>
       <c r="T57" s="5" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
       <c r="W57" s="7"/>
     </row>
-    <row r="58" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="58" spans="5:23">
       <c r="N58" s="4" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
       <c r="S58" s="7"/>
       <c r="T58" s="5" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
       <c r="W58" s="7"/>
     </row>
-    <row r="59" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="59" spans="5:23">
       <c r="N59" s="4" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
       <c r="S59" s="7"/>
       <c r="T59" s="5" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
       <c r="W59" s="7"/>
     </row>
-    <row r="60" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="60" spans="5:23">
       <c r="N60" s="4" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
       <c r="S60" s="7"/>
       <c r="T60" s="5" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="U60" s="6"/>
       <c r="V60" s="6"/>
       <c r="W60" s="7"/>
     </row>
-    <row r="61" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="61" spans="5:23">
       <c r="N61" s="4" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
       <c r="S61" s="7"/>
       <c r="T61" s="5" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="U61" s="6"/>
       <c r="V61" s="6"/>
       <c r="W61" s="7"/>
     </row>
-    <row r="62" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="62" spans="5:23">
       <c r="N62" s="4" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
       <c r="S62" s="7"/>
       <c r="T62" s="5" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
       <c r="W62" s="7"/>
     </row>
-    <row r="63" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="63" spans="5:23">
       <c r="N63" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
       <c r="S63" s="7"/>
       <c r="T63" s="5" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
       <c r="W63" s="7"/>
     </row>
-    <row r="64" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="64" spans="5:23">
       <c r="N64" s="4" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
       <c r="S64" s="7"/>
       <c r="T64" s="5" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="U64" s="6"/>
       <c r="V64" s="6"/>
       <c r="W64" s="7"/>
     </row>
-    <row r="65" spans="3:23" x14ac:dyDescent="0.4">
+    <row r="65" spans="3:23">
       <c r="N65" s="4" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
       <c r="R65" s="6"/>
       <c r="S65" s="7"/>
       <c r="T65" s="12" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="U65" s="13"/>
       <c r="V65" s="13"/>
       <c r="W65" s="14"/>
     </row>
-    <row r="69" spans="3:23" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="69" spans="3:23" ht="19.5">
       <c r="C69" s="2" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="3:23" x14ac:dyDescent="0.4">
+    <row r="70" spans="3:23">
       <c r="D70" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="71" spans="3:23" x14ac:dyDescent="0.4">
+    <row r="71" spans="3:23">
       <c r="D71" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="72" spans="3:23" x14ac:dyDescent="0.4">
+    <row r="72" spans="3:23">
       <c r="E72" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="73" spans="3:23" x14ac:dyDescent="0.4">
+    <row r="73" spans="3:23">
       <c r="E73" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="80" spans="3:23" x14ac:dyDescent="0.4">
+    <row r="80" spans="3:23">
       <c r="N80" s="8"/>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.4">
+    <row r="82" spans="4:13">
       <c r="D82" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.4">
+    <row r="83" spans="4:13">
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="4:13">
+      <c r="F84" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="4:13">
+      <c r="F85" t="s">
+        <v>71</v>
+      </c>
+      <c r="M85" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6">
+      <c r="E100" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6">
+      <c r="F101" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6">
+      <c r="F102" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6">
+      <c r="F103" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6">
+      <c r="F104" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="129" spans="4:9">
+      <c r="D129" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="130" spans="4:9">
+      <c r="E130" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.4">
-      <c r="F84" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.4">
-      <c r="F85" t="s">
-        <v>49</v>
-      </c>
-      <c r="M85" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E100" s="1" t="s">
+    <row r="131" spans="4:9">
+      <c r="F131" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="F101" t="s">
+      <c r="I131" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="F102" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="F103" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="F104" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="129" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D129" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="130" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="E130" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="131" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="F131" t="s">
-        <v>50</v>
-      </c>
-      <c r="I131" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="132" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="132" spans="4:9">
       <c r="F132" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="133" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="F133" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="148" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E148" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="149" spans="5:6" x14ac:dyDescent="0.4">
+    <row r="133" spans="4:9">
+      <c r="F133" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="148" spans="5:6">
+      <c r="E148" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="149" spans="5:6">
       <c r="F149" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -13932,12 +15037,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:O192"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A165" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D172" sqref="D172"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="3.25" customWidth="1"/>
@@ -13946,343 +15053,513 @@
     <col min="5" max="5" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="24" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" ht="24">
       <c r="B2" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="19.5">
+      <c r="C3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="19.5">
+      <c r="C12" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="19.5">
+      <c r="C13" s="2"/>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="19.5">
+      <c r="C14" s="2"/>
+      <c r="D14" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="19.5">
+      <c r="C15" s="2"/>
+      <c r="D15" s="16"/>
+      <c r="E15" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C3" s="2" t="s">
+      <c r="F15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D4" t="s">
+    <row r="16" spans="2:6" ht="19.5">
+      <c r="C16" s="2"/>
+      <c r="E16" t="s">
         <v>100</v>
       </c>
+      <c r="F16" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D5" t="s">
+    <row r="17" spans="3:12" ht="19.5">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="3:12" ht="19.5">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="3:12" ht="19.5">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:12" ht="19.5">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="3:12" ht="19.5">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="3:12" ht="19.5">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="3:12" ht="19.5">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="3:12" ht="19.5">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="3:12">
+      <c r="D25" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="E25" s="1"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D6" t="s">
+    <row r="26" spans="3:12">
+      <c r="D26" s="1"/>
+      <c r="E26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12">
+      <c r="D27" s="1"/>
+      <c r="E27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12">
+      <c r="D28" s="1"/>
+      <c r="E28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="3:12">
+      <c r="D30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="3:12">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="4:6">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="4:6">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="4:6">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="4:6">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="4:6">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="4:6">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="4:6">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="4:6">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="4:6">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="4:6">
+      <c r="D42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="4:6">
+      <c r="E43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6">
+      <c r="E44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6">
+      <c r="E46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6">
+      <c r="F47" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14">
+      <c r="F49" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14">
+      <c r="I53" t="s">
+        <v>115</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14">
+      <c r="G59" t="s">
+        <v>117</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" ht="19.5">
+      <c r="C60" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14">
+      <c r="D61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14">
+      <c r="D62" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14">
+      <c r="E63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14">
+      <c r="E64" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5">
+      <c r="D86" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5">
+      <c r="E87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5">
+      <c r="E88" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5">
+      <c r="E89" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="111" spans="4:5">
+      <c r="D111" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="112" spans="4:5">
+      <c r="E112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="5:5">
+      <c r="E113" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5">
+      <c r="E114" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="137" spans="4:5">
+      <c r="D137" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="138" spans="4:5">
+      <c r="E138" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="139" spans="4:5">
+      <c r="E139" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140" spans="4:5">
+      <c r="E140" s="17"/>
+    </row>
+    <row r="169" spans="3:4" ht="19.5">
+      <c r="C169" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="170" spans="3:4">
+      <c r="D170" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="171" spans="3:4">
+      <c r="D171" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D7" t="s">
+    <row r="173" spans="3:4">
+      <c r="D173" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D8" t="s">
+    <row r="192" spans="15:15" ht="24">
+      <c r="O192" s="3" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C12" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C13" s="2"/>
-      <c r="D13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C14" s="2"/>
-      <c r="D14" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C15" s="2"/>
-      <c r="D15" s="16"/>
-      <c r="E15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C16" s="2"/>
-      <c r="E16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="D25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="D26" s="1"/>
-      <c r="E26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="D27" s="1"/>
-      <c r="E27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="D28" s="1"/>
-      <c r="E28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="D30" s="1"/>
-      <c r="F30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D42" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="E43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="E44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="E46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="F47" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="F49" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="I53" t="s">
-        <v>63</v>
-      </c>
-      <c r="N53" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="G59" t="s">
-        <v>64</v>
-      </c>
-      <c r="L59" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C60" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="D61" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="D62" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="E63" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="E64" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D86" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="E87" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="E88" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="E89" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D111" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="E112" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E113" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E114" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D137" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="E138" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="E139" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="E140" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="169" spans="3:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C169" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D170" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D171" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D173" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="192" spans="15:15" ht="24" x14ac:dyDescent="0.4">
-      <c r="O192" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101003442B980DF3C8247A14AC4F4CEC26B16" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="28b866df324f6e72f4ae0767aa81268a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="545b8069-f163-4bb3-9d35-7febfaab5682" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44d7a6a8b5cec89910e4d0bef4271b70" ns2:_="">
+    <xsd:import namespace="545b8069-f163-4bb3-9d35-7febfaab5682"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="545b8069-f163-4bb3-9d35-7febfaab5682" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E4C9164-9275-4CAC-B0D4-90C713730255}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{377AAC04-75C8-496D-8371-2E373E464FCA}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FD5F226-5D23-45D5-8A79-8AD7C1CFA867}"/>
 </file>
--- a/外部設計/資料/モデルテンプレート資料.xlsx
+++ b/外部設計/資料/モデルテンプレート資料.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25825"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\TOYO TIRE\Git\TOYOTIRE_BRAND\外部設計\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_787B4A688B0313377E7B5FBA190D54C92E355D14" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="11025" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="166">
   <si>
     <t>1. 概要</t>
     <rPh sb="3" eb="5">
@@ -556,9 +555,6 @@
       <t>ハイチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑤ 図形ブロックは、基準線設定後に配置されます。</t>
   </si>
   <si>
     <t>円弧配列・C表の固定PIC番号（固定となるPIC番号については検討・確認要）</t>
@@ -1292,22 +1288,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>図形を認識する為の「PIC番号」を「PIC.??」の形式のテキストで枠の左上に配置します。</t>
-    <rPh sb="26" eb="28">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ワク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒダリウエ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3-2-2. 画層</t>
     <rPh sb="7" eb="9">
       <t>ガソウ</t>
@@ -1365,41 +1345,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3-2-3. サイズ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モデル空間に配置するPICブロックのサイズは、タイヤの直径等の図面の寸法により変更する必要がある為</t>
-    <rPh sb="3" eb="5">
-      <t>クウカン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>チョッケイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>スンポウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>タメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>基準線の直径に応じたテンプレートを準備します。</t>
     <rPh sb="0" eb="3">
       <t>キジュンセン</t>
@@ -1412,35 +1357,6 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>＜PICブロックサイズ例＞</t>
-    <rPh sb="11" eb="12">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※ 正式なブロックサイズの種類についてはテンプレート作成前に確認させて頂きます。</t>
-    <rPh sb="2" eb="4">
-      <t>セイシキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>イタダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1800,12 +1716,541 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>⑥PIC枠は、右側のものは基準線設定後に、左側のものは各機能実行時に配置されます。</t>
+    <rPh sb="4" eb="5">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="27" eb="33">
+      <t>カクキノウジッコウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヤ円、鋳型等の形状図用</t>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>イガタナド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1～3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4～10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11～39</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PIC 番号</t>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コード表、断面図等の図面情報用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特徴</t>
+    <rPh sb="0" eb="2">
+      <t>トクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の想定は下記となります。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤PIC枠は作図内容によって種類分けを行います。</t>
+    <rPh sb="4" eb="5">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクズ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※PIC 番号は円弧配列、C表から推察したものとなりますので、</t>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>スイサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　不足PICまたは、別工程での作図サイズに適していない等あればご指摘ください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横長の長方形の形状をしている。
+一部文字幅と高さが大きいものが存在するため、標準用と大サイズ用の2種類を用意する。
+どのサイズまでを標準サイズとするのかは要検討・確認。</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコナガ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チョウホウケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>モジハバ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>ヒョウジュンヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="77" eb="80">
+      <t>ヨウケントウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヤ円等の大きくはならないが、工程によって作図される絵のサイズが異なる、ラベルの個数によって表の行数が増減することを考慮したサイズとなっています。</t>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクズ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ギョウスウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ゾウゲン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>コウリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイヤ円、鋳型等の形状図用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・コード表、断面図等の図面情報用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヤ円、鋳型等の形状図用は、タイヤの直径等の図面の寸法により変更する必要がある為</t>
+    <rPh sb="19" eb="21">
+      <t>チョッケイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>スンポウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・編集文字用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字はサイズは幅が10mm未満～1000mm以上、高さが10ｍｍ未満～100mm以上と差が大きいため、</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-2-3. サイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜PIC枠同士のサイズ感イメージ＞</t>
+    <rPh sb="4" eb="5">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標準用と大サイズ用の2サイズを使用します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1サイズの図枠を使用します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル空間に配置する各PICブロックのそれぞれのサイズは下記の通りです。</t>
+    <rPh sb="10" eb="11">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ 正式なブロックサイズの種類と寸法についてはテンプレート作成前に確認させて頂きます。</t>
+    <rPh sb="2" eb="4">
+      <t>セイシキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>スンポウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イタダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>500mm×500mm程度を想定しています。</t>
+    <rPh sb="11" eb="13">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図形を認識する為の「PIC番号」を「PIC.??」の形式のテキスト＋属性定義で枠の左上に配置します。</t>
+    <rPh sb="26" eb="28">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>ゾクセイテイギ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(例)</t>
+    <rPh sb="1" eb="2">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜パターン1＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜パターン2＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(例) 左：標準用（幅500未満）、右：大サイズ（幅500以上）</t>
+    <rPh sb="1" eb="2">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヒョウジュンヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※要確認・検討</t>
+    <rPh sb="1" eb="2">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※タイヤ円等の形状作図用のPICの座標がX、Y共に正の値となるように右側にしていますが、設計時に調整可能です。</t>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>サクズヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>セッケイジ</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>チョウセイカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヤ円等の大きいサイズの絵を描くためのPICなので、PIC枠の中では一番大きなサイズとなる。
+タイヤの直径等の図面の寸法により変更する必要がある為、
+数パターンのサイズの用意を検討しています。
+（詳細はテンプレートシート「3-2-2 サイズ」に記載）
+レイアウトはサイズごとに用意する、または、複数サイズに
+対応したレイアウトを用意する必要があります。</t>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>イチバンオオ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1879,7 +2324,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1889,6 +2334,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1990,7 +2447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2044,6 +2501,36 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2758,16 +3245,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2782,7 +3269,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1257299" y="12830174"/>
+          <a:off x="1466849" y="12563474"/>
           <a:ext cx="5057775" cy="3114676"/>
           <a:chOff x="1295399" y="12534899"/>
           <a:chExt cx="5057775" cy="3114676"/>
@@ -5205,13 +5692,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5227,7 +5714,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1257300" y="17602200"/>
+          <a:off x="1257300" y="29584650"/>
           <a:ext cx="2514600" cy="1381125"/>
           <a:chOff x="1295400" y="20250150"/>
           <a:chExt cx="2514600" cy="1381125"/>
@@ -5337,13 +5824,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5359,7 +5846,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1247775" y="20459699"/>
+          <a:off x="1247775" y="32442149"/>
           <a:ext cx="4105276" cy="3114676"/>
           <a:chOff x="1285875" y="23250524"/>
           <a:chExt cx="4105276" cy="3114676"/>
@@ -5666,13 +6153,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5726,13 +6213,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5748,7 +6235,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6248399" y="20469224"/>
+          <a:off x="6248399" y="32451674"/>
           <a:ext cx="5057775" cy="3114676"/>
           <a:chOff x="6095999" y="23088599"/>
           <a:chExt cx="5057775" cy="3114676"/>
@@ -8033,13 +8520,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8055,7 +8542,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1257300" y="31908749"/>
+          <a:off x="1257300" y="43891199"/>
           <a:ext cx="4105276" cy="3114676"/>
           <a:chOff x="1276350" y="27298649"/>
           <a:chExt cx="4105276" cy="3114676"/>
@@ -8425,13 +8912,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8505,13 +8992,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8527,7 +9014,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6048374" y="31918274"/>
+          <a:off x="6048374" y="43900724"/>
           <a:ext cx="5057775" cy="3114676"/>
           <a:chOff x="6486524" y="26708099"/>
           <a:chExt cx="5057775" cy="3114676"/>
@@ -10792,13 +11279,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10852,13 +11339,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10932,13 +11419,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10992,13 +11479,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11060,13 +11547,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11128,13 +11615,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11196,13 +11683,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>145074</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -11218,7 +11705,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1057275" y="24974550"/>
+          <a:off x="1057275" y="36957000"/>
           <a:ext cx="14268450" cy="5336199"/>
           <a:chOff x="1057275" y="33070800"/>
           <a:chExt cx="14268450" cy="5336199"/>
@@ -11882,6 +12369,503 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>310134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9058275" y="17068800"/>
+          <a:ext cx="4200525" cy="3472434"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1447800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9182100" y="17183100"/>
+          <a:ext cx="2105025" cy="2038350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>971551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="190" name="正方形/長方形 189"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11553825" y="17621251"/>
+          <a:ext cx="1143000" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1743077</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="200" name="正方形/長方形 199"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9201150" y="19516727"/>
+          <a:ext cx="3905250" cy="914398"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="線吹き出し 1 (枠付き) 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11658600" y="16792575"/>
+          <a:ext cx="2133600" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52083"/>
+            <a:gd name="adj2" fmla="val 149"/>
+            <a:gd name="adj3" fmla="val 120833"/>
+            <a:gd name="adj4" fmla="val -16904"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タイヤ円、鋳型等の形状図用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>761999</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="245" name="線吹き出し 1 (枠付き) 244"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="17792700"/>
+          <a:ext cx="1819275" cy="742949"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52083"/>
+            <a:gd name="adj2" fmla="val 149"/>
+            <a:gd name="adj3" fmla="val 73875"/>
+            <a:gd name="adj4" fmla="val -21754"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コード表、断面図等の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>図面情報用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1057275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1628775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="246" name="線吹き出し 1 (枠付き) 245"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13049250" y="18830925"/>
+          <a:ext cx="1133475" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52083"/>
+            <a:gd name="adj2" fmla="val 149"/>
+            <a:gd name="adj3" fmla="val 119166"/>
+            <a:gd name="adj4" fmla="val -32870"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>編集文字用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>150843</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="251" name="図 250"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="22212300"/>
+          <a:ext cx="9237693" cy="4181475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>582184</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>128927</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="252" name="図 251"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11058525" y="22212300"/>
+          <a:ext cx="9497584" cy="4177052"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12076,510 +13060,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="グループ化 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1485900" y="11868150"/>
-          <a:ext cx="2219325" cy="2981325"/>
-          <a:chOff x="1866900" y="10906125"/>
-          <a:chExt cx="2219325" cy="2971800"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="図 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="1914526" y="10925177"/>
-            <a:ext cx="1866899" cy="1858526"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="テキスト ボックス 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1866900" y="10906125"/>
-            <a:ext cx="647700" cy="257175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>PIC.2</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="右中かっこ 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3810000" y="10915650"/>
-            <a:ext cx="276225" cy="1876425"/>
-          </a:xfrm>
-          <a:prstGeom prst="rightBrace">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 139368"/>
-              <a:gd name="adj2" fmla="val 41879"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="右中かっこ 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2686050" y="12001500"/>
-            <a:ext cx="276225" cy="1876425"/>
-          </a:xfrm>
-          <a:prstGeom prst="rightBrace">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 162929"/>
-              <a:gd name="adj2" fmla="val 52031"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="16200000"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t"/>
-          </a:scene3d>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="グループ化 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4762500" y="11868150"/>
-          <a:ext cx="2219325" cy="2981325"/>
-          <a:chOff x="1514475" y="21393150"/>
-          <a:chExt cx="2219325" cy="2971800"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="11" name="図 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="1562101" y="21412202"/>
-            <a:ext cx="1866899" cy="1858526"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="テキスト ボックス 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1514475" y="21393150"/>
-            <a:ext cx="647700" cy="257175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>PIC.2</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="右中かっこ 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3457575" y="21402675"/>
-            <a:ext cx="276225" cy="1876425"/>
-          </a:xfrm>
-          <a:prstGeom prst="rightBrace">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 139368"/>
-              <a:gd name="adj2" fmla="val 41879"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="右中かっこ 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2333625" y="22488525"/>
-            <a:ext cx="276225" cy="1876425"/>
-          </a:xfrm>
-          <a:prstGeom prst="rightBrace">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 162929"/>
-              <a:gd name="adj2" fmla="val 52031"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="16200000"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t"/>
-          </a:scene3d>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -12726,13 +13206,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>554346</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -12748,7 +13228,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1285875" y="15487650"/>
+          <a:off x="1285875" y="20012025"/>
           <a:ext cx="6926571" cy="4905375"/>
           <a:chOff x="1285875" y="15297150"/>
           <a:chExt cx="6926571" cy="4905375"/>
@@ -13011,13 +13491,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>603165</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -13033,7 +13513,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1228726" y="21431251"/>
+          <a:off x="1228726" y="25955626"/>
           <a:ext cx="7032539" cy="4924424"/>
           <a:chOff x="1228726" y="21193126"/>
           <a:chExt cx="7032539" cy="4924424"/>
@@ -13500,13 +13980,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>159186</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -13522,7 +14002,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1219201" y="27574875"/>
+          <a:off x="1219201" y="32099250"/>
           <a:ext cx="7010400" cy="4940736"/>
           <a:chOff x="1219201" y="27336750"/>
           <a:chExt cx="7010400" cy="4940736"/>
@@ -13989,13 +14469,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>85696</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14050,13 +14530,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>106350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14111,13 +14591,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>228601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>227769</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14172,13 +14652,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>228601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>22630</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14233,13 +14713,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>551948</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>132830</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14265,6 +14745,524 @@
         <a:xfrm>
           <a:off x="762000" y="41195625"/>
           <a:ext cx="4019048" cy="4161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>33716</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="47" name="グループ化 46"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1485900" y="12344401"/>
+          <a:ext cx="2219325" cy="2176840"/>
+          <a:chOff x="1483179" y="11831412"/>
+          <a:chExt cx="2223407" cy="2176840"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="図 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1530893" y="11850505"/>
+            <a:ext cx="1870333" cy="1862778"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="テキスト ボックス 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1483179" y="11831412"/>
+            <a:ext cx="648891" cy="257764"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>PIC.2</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="右中かっこ 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3429853" y="11840955"/>
+            <a:ext cx="276733" cy="1880719"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightBrace">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 139368"/>
+              <a:gd name="adj2" fmla="val 41879"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="57" name="右中かっこ 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="2320871" y="12929526"/>
+            <a:ext cx="276733" cy="1880719"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightBrace">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 139368"/>
+              <a:gd name="adj2" fmla="val 51646"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>41530</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="48" name="グループ化 47"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4762500" y="12345759"/>
+          <a:ext cx="2219325" cy="2183296"/>
+          <a:chOff x="4765221" y="11832770"/>
+          <a:chExt cx="2224768" cy="2183296"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="図 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4812964" y="11851859"/>
+            <a:ext cx="1871478" cy="1861929"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="テキスト ボックス 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4765221" y="11832770"/>
+            <a:ext cx="649289" cy="257646"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>PIC.2</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="右中かっこ 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6713087" y="11842308"/>
+            <a:ext cx="276902" cy="1879861"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightBrace">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 139368"/>
+              <a:gd name="adj2" fmla="val 41879"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="右中かっこ 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="5604105" y="12937684"/>
+            <a:ext cx="276902" cy="1879861"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightBrace">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 139368"/>
+              <a:gd name="adj2" fmla="val 46222"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>222539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485901" y="17106900"/>
+          <a:ext cx="5181600" cy="1413164"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14538,14 +15536,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:W149"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:W183"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P76" sqref="P76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.875" customWidth="1"/>
     <col min="2" max="2" width="3.25" customWidth="1"/>
@@ -14554,77 +15552,77 @@
     <col min="5" max="5" width="2.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="24">
+    <row r="2" spans="2:4" ht="24" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="24">
+    <row r="6" spans="2:4" ht="24" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="19.5">
+    <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="4:11">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
@@ -14632,419 +15630,601 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="4:11">
+    <row r="29" spans="4:11" x14ac:dyDescent="0.4">
       <c r="K29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="4:11">
+    <row r="31" spans="4:11" x14ac:dyDescent="0.4">
       <c r="E31" s="1"/>
     </row>
-    <row r="34" spans="3:6" ht="19.5">
+    <row r="34" spans="3:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="3:6">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="3:6">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.4">
       <c r="D36" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="3:6">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.4">
       <c r="E37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="3:6">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.4">
       <c r="D45" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="3:6">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.4">
       <c r="E46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="3:6">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.4">
       <c r="E47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="3:6">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.4">
       <c r="F48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="5:23">
+    <row r="49" spans="5:23" x14ac:dyDescent="0.4">
       <c r="E49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="5:23">
+    <row r="50" spans="5:23" x14ac:dyDescent="0.4">
       <c r="F50" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="5:23">
-      <c r="E51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="5:23">
-      <c r="F52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="5:23">
-      <c r="E53" t="s">
+    <row r="51" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="F51" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="E52" s="22"/>
+    </row>
+    <row r="53" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="N53" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="5:23">
-      <c r="N54" s="1" t="s">
+    <row r="54" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="N54" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="55" spans="5:23">
-      <c r="N55" s="15" t="s">
+      <c r="O54" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="O55" s="18" t="s">
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18" t="s">
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+    </row>
+    <row r="55" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="N55" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="18"/>
-    </row>
-    <row r="56" spans="5:23">
+      <c r="O55" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="7"/>
+    </row>
+    <row r="56" spans="5:23" x14ac:dyDescent="0.4">
       <c r="N56" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
       <c r="S56" s="7"/>
       <c r="T56" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
       <c r="W56" s="7"/>
     </row>
-    <row r="57" spans="5:23">
+    <row r="57" spans="5:23" x14ac:dyDescent="0.4">
       <c r="N57" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
       <c r="S57" s="7"/>
       <c r="T57" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
       <c r="W57" s="7"/>
     </row>
-    <row r="58" spans="5:23">
+    <row r="58" spans="5:23" x14ac:dyDescent="0.4">
       <c r="N58" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
       <c r="S58" s="7"/>
       <c r="T58" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
       <c r="W58" s="7"/>
     </row>
-    <row r="59" spans="5:23">
+    <row r="59" spans="5:23" x14ac:dyDescent="0.4">
       <c r="N59" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
       <c r="S59" s="7"/>
       <c r="T59" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
       <c r="W59" s="7"/>
     </row>
-    <row r="60" spans="5:23">
+    <row r="60" spans="5:23" x14ac:dyDescent="0.4">
       <c r="N60" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O60" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="O60" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
       <c r="S60" s="7"/>
       <c r="T60" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U60" s="6"/>
       <c r="V60" s="6"/>
       <c r="W60" s="7"/>
     </row>
-    <row r="61" spans="5:23">
+    <row r="61" spans="5:23" x14ac:dyDescent="0.4">
       <c r="N61" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
       <c r="S61" s="7"/>
       <c r="T61" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U61" s="6"/>
       <c r="V61" s="6"/>
       <c r="W61" s="7"/>
     </row>
-    <row r="62" spans="5:23">
+    <row r="62" spans="5:23" x14ac:dyDescent="0.4">
       <c r="N62" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
       <c r="S62" s="7"/>
       <c r="T62" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
       <c r="W62" s="7"/>
     </row>
-    <row r="63" spans="5:23">
+    <row r="63" spans="5:23" x14ac:dyDescent="0.4">
       <c r="N63" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
       <c r="S63" s="7"/>
       <c r="T63" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
       <c r="W63" s="7"/>
     </row>
-    <row r="64" spans="5:23">
+    <row r="64" spans="5:23" x14ac:dyDescent="0.4">
       <c r="N64" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
       <c r="S64" s="7"/>
-      <c r="T64" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U64" s="6"/>
-      <c r="V64" s="6"/>
-      <c r="W64" s="7"/>
-    </row>
-    <row r="65" spans="3:23">
-      <c r="N65" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O65" s="5" t="s">
+      <c r="T64" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="12" t="s">
+      <c r="U64" s="13"/>
+      <c r="V64" s="13"/>
+      <c r="W64" s="14"/>
+    </row>
+    <row r="67" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="E67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="F68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="E69" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="F70" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="F71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="F72" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="F74" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G74" s="25"/>
+      <c r="H74" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="5:17" ht="193.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F75" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="5:17" ht="78.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F76" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="5:17" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F77" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="E79" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="E80" s="23"/>
+    </row>
+    <row r="81" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E81" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E82" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E83" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="T83" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E84" s="23"/>
+    </row>
+    <row r="85" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E85" s="23"/>
+    </row>
+    <row r="86" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E86" s="23"/>
+    </row>
+    <row r="87" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E87" s="23"/>
+    </row>
+    <row r="88" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E88" s="23"/>
+    </row>
+    <row r="89" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E89" s="23"/>
+    </row>
+    <row r="90" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E90" s="23"/>
+    </row>
+    <row r="91" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E91" s="23"/>
+    </row>
+    <row r="92" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E92" s="23"/>
+    </row>
+    <row r="93" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E93" s="23"/>
+    </row>
+    <row r="94" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E94" s="23"/>
+    </row>
+    <row r="95" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E95" s="23"/>
+    </row>
+    <row r="96" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E96" s="23"/>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E97" s="23"/>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E98" s="23"/>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E99" s="23"/>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E100" s="23"/>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E101" s="23"/>
+    </row>
+    <row r="103" spans="3:5" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C103" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="U65" s="13"/>
-      <c r="V65" s="13"/>
-      <c r="W65" s="14"/>
-    </row>
-    <row r="69" spans="3:23" ht="19.5">
-      <c r="C69" s="2" t="s">
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D104" t="s">
         <v>63</v>
       </c>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="3:23">
-      <c r="D70" t="s">
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D105" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="3:23">
-      <c r="D71" s="1" t="s">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E106" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="3:23">
-      <c r="E72" t="s">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E107" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="3:23">
-      <c r="E73" t="s">
+    <row r="114" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="N114" s="8"/>
+    </row>
+    <row r="116" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D116" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="3:23">
-      <c r="N80" s="8"/>
-    </row>
-    <row r="82" spans="4:13">
-      <c r="D82" s="1" t="s">
+    <row r="117" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D117" s="1"/>
+      <c r="E117" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="4:13">
-      <c r="D83" s="1"/>
-      <c r="E83" s="1" t="s">
+    <row r="118" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="F118" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="4:13">
-      <c r="F84" t="s">
+    <row r="119" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="F119" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="85" spans="4:13">
-      <c r="F85" t="s">
+      <c r="M119" t="s">
         <v>71</v>
       </c>
-      <c r="M85" t="s">
+    </row>
+    <row r="134" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E134" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="100" spans="5:6">
-      <c r="E100" s="1" t="s">
+    <row r="135" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="F135" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="5:6">
-      <c r="F101" t="s">
+    <row r="136" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="F136" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="5:6">
-      <c r="F102" t="s">
+    <row r="137" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="F137" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="5:6">
-      <c r="F103" t="s">
+    <row r="138" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="F138" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="5:6">
-      <c r="F104" t="s">
+    <row r="163" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D163" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="129" spans="4:9">
-      <c r="D129" s="1" t="s">
+    <row r="164" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="E164" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="130" spans="4:9">
-      <c r="E130" s="1" t="s">
+    <row r="165" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="F165" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="131" spans="4:9">
-      <c r="F131" t="s">
+      <c r="I165" t="s">
         <v>80</v>
       </c>
-      <c r="I131" t="s">
+    </row>
+    <row r="166" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="F166" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="132" spans="4:9">
-      <c r="F132" t="s">
+    <row r="167" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="F167" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="4:9">
-      <c r="F133" t="s">
+    <row r="182" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E182" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="148" spans="5:6">
-      <c r="E148" s="1" t="s">
+    <row r="183" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="F183" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="149" spans="5:6">
-      <c r="F149" t="s">
-        <v>85</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="O55:S55"/>
-    <mergeCell ref="T55:W55"/>
+  <mergeCells count="10">
+    <mergeCell ref="O54:S54"/>
+    <mergeCell ref="T54:W54"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H75:M75"/>
+    <mergeCell ref="H77:M77"/>
+    <mergeCell ref="H76:M76"/>
+    <mergeCell ref="H74:M74"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:O192"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O211"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A165" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D172" sqref="D172"/>
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="3.25" customWidth="1"/>
@@ -15053,336 +16233,429 @@
     <col min="5" max="5" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="24">
+    <row r="2" spans="2:6" ht="24" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C3" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="19.5">
-      <c r="C3" s="2" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="D4" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
-      <c r="D5" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="D6" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="D7" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="D8" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="D9" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="D10" t="s">
+    <row r="12" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C12" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="19.5">
-      <c r="C12" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="19.5">
+    <row r="13" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C13" s="2"/>
       <c r="D13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="19.5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C14" s="2"/>
       <c r="D14" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="19.5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C15" s="2"/>
       <c r="D15" s="16"/>
       <c r="E15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" t="s">
         <v>98</v>
       </c>
-      <c r="F15" t="s">
+    </row>
+    <row r="16" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C16" s="2"/>
+      <c r="E16" s="22" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" ht="19.5">
-      <c r="C16" s="2"/>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="D25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" ht="19.5">
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="3:12" ht="19.5">
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="3:12" ht="19.5">
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="3:12" ht="19.5">
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="3:12" ht="19.5">
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="3:12" ht="19.5">
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="3:12" ht="19.5">
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="3:12" ht="19.5">
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="3:12">
-      <c r="D25" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="3:12">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.4">
       <c r="D26" s="1"/>
       <c r="E26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.4">
       <c r="D27" s="1"/>
       <c r="E27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.4">
       <c r="D28" s="1"/>
       <c r="E28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.4">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="3:12">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.4">
       <c r="D30" s="1"/>
       <c r="F30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D42" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D43" s="1"/>
+      <c r="E43" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D45" s="1"/>
+      <c r="E45" s="17"/>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D46" s="1"/>
+      <c r="E46" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E47" s="22"/>
+      <c r="F47" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E48" s="22"/>
+      <c r="F48" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="L30" s="1" t="s">
+    </row>
+    <row r="49" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+    </row>
+    <row r="50" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="F50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="F51" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="31" spans="3:12">
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="3:12">
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="4:6">
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="4:6">
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="4:6">
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="4:6">
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="4:6">
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="4:6">
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="4:6">
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="4:6">
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="4:6">
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="4:6">
-      <c r="D42" s="1" t="s">
+      <c r="K51" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="4:6">
-      <c r="E43" t="s">
+    </row>
+    <row r="55" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="I55" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="44" spans="4:6">
-      <c r="E44" t="s">
+      <c r="N55" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="4:6">
-      <c r="E46" t="s">
+    <row r="61" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="G61" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="47" spans="4:6">
-      <c r="F47" s="1" t="s">
+      <c r="L61" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="L62" s="10"/>
+    </row>
+    <row r="63" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D63" s="1"/>
+      <c r="E63" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="E64" s="22"/>
+      <c r="F64" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E65" s="22"/>
+      <c r="F65" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E66" s="22"/>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="D67" s="1"/>
+      <c r="E67" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E68" s="22"/>
+      <c r="F68" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E69" s="22"/>
+      <c r="F69" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E71" s="22"/>
+      <c r="F71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E72" s="22"/>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E73" s="22"/>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E74" s="22"/>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E75" s="22"/>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E76" s="22"/>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E77" s="22"/>
+    </row>
+    <row r="79" spans="3:6" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C79" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="3:14">
-      <c r="F49" s="9" t="s">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="D80" t="s">
         <v>113</v>
       </c>
-      <c r="K49" s="9" t="s">
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D81" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="3:14">
-      <c r="I53" t="s">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E82" t="s">
         <v>115</v>
       </c>
-      <c r="N53" s="11" t="s">
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E83" s="17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="3:14">
-      <c r="G59" t="s">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D105" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="L59" s="10" t="s">
+    </row>
+    <row r="106" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E106" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E107" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E108" s="17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="3:14" ht="19.5">
-      <c r="C60" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14">
-      <c r="D61" t="s">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D130" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="131" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E131" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="132" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E132" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="3:14">
-      <c r="D62" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14">
-      <c r="E63" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="3:14">
-      <c r="E64" s="17" t="s">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E133" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="156" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D156" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="4:5">
-      <c r="D86" s="16" t="s">
+    <row r="157" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E157" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="4:5">
-      <c r="E87" t="s">
+    <row r="158" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E158" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="4:5">
-      <c r="E88" s="17" t="s">
+    <row r="159" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E159" s="17"/>
+    </row>
+    <row r="188" spans="3:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C188" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="4:5">
-      <c r="E89" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="4:5">
-      <c r="D111" s="16" t="s">
+    <row r="189" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D189" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="112" spans="4:5">
-      <c r="E112" t="s">
+    <row r="190" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D190" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="113" spans="5:5">
-      <c r="E113" s="17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="5:5">
-      <c r="E114" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="137" spans="4:5">
-      <c r="D137" s="16" t="s">
+    <row r="192" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D192" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="138" spans="4:5">
-      <c r="E138" t="s">
+    <row r="211" spans="15:15" ht="24" x14ac:dyDescent="0.4">
+      <c r="O211" s="3" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="139" spans="4:5">
-      <c r="E139" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="140" spans="4:5">
-      <c r="E140" s="17"/>
-    </row>
-    <row r="169" spans="3:4" ht="19.5">
-      <c r="C169" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="170" spans="3:4">
-      <c r="D170" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="171" spans="3:4">
-      <c r="D171" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="173" spans="3:4">
-      <c r="D173" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="192" spans="15:15" ht="24">
-      <c r="O192" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -15553,13 +16826,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E4C9164-9275-4CAC-B0D4-90C713730255}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E4C9164-9275-4CAC-B0D4-90C713730255}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{377AAC04-75C8-496D-8371-2E373E464FCA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{377AAC04-75C8-496D-8371-2E373E464FCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FD5F226-5D23-45D5-8A79-8AD7C1CFA867}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FD5F226-5D23-45D5-8A79-8AD7C1CFA867}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="545b8069-f163-4bb3-9d35-7febfaab5682"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/外部設計/資料/モデルテンプレート資料.xlsx
+++ b/外部設計/資料/モデルテンプレート資料.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="170">
   <si>
     <t>1. 概要</t>
     <rPh sb="3" eb="5">
@@ -442,46 +442,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>③ 見た目を分かり易くする為、PIC番号が固定となる図面のブロック群を右半分に配置し、</t>
-    <rPh sb="2" eb="3">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヤス</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>コテイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ハンブン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PIC番号が流動的となる図面のブロック群を左半分に配置します。</t>
     <rPh sb="6" eb="9">
       <t>リュウドウテキ</t>
@@ -500,25 +460,6 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>④ 右半分のブロックは、「PIC1」～「PIC10」の固定とし、左半分のブロックは</t>
-    <rPh sb="2" eb="3">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハンブン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コテイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ハンブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1802,28 +1743,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>⑤PIC枠は作図内容によって種類分けを行います。</t>
-    <rPh sb="4" eb="5">
-      <t>ワク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクズ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※PIC 番号は円弧配列、C表から推察したものとなりますので、</t>
     <rPh sb="5" eb="7">
       <t>バンゴウ</t>
@@ -2094,14 +2013,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>＜パターン1＞</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>＜パターン2＞</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(例) 左：標準用（幅500未満）、右：大サイズ（幅500以上）</t>
     <rPh sb="1" eb="2">
       <t>レイ</t>
@@ -2243,6 +2154,80 @@
     <rPh sb="171" eb="173">
       <t>ヒツヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜パターン1（上：編集文字枠単体サイズ、下：編集文字枠複数サイズ）＞</t>
+    <rPh sb="7" eb="8">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>フクスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜パターン2（上：編集文字枠単体サイズ、下：編集文字枠複数サイズ）＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③PIC枠は作図内容によって種類分けを行います。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤ 右半分のブロックは、「PIC1」～「PIC10」の固定とし、左半分のブロックは</t>
+    <rPh sb="2" eb="3">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンブン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20221116_テンプレートサンプル_配置パターン1_編集文字枠1種類版.dwg</t>
+  </si>
+  <si>
+    <t>20221116_テンプレートサンプル_配置パターン1_編集文字枠2種類版.dwg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20221116_テンプレートサンプル_配置パターン2_編集文字枠1種類版.dwg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20221116_テンプレートサンプル_配置パターン1_編集文字枠2種類版.dwg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2447,7 +2432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2520,19 +2505,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3247,13 +3235,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3269,7 +3257,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1466849" y="12563474"/>
+          <a:off x="1466849" y="18830924"/>
           <a:ext cx="5057775" cy="3114676"/>
           <a:chOff x="1295399" y="12534899"/>
           <a:chExt cx="5057775" cy="3114676"/>
@@ -5692,13 +5680,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5714,7 +5702,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1257300" y="29584650"/>
+          <a:off x="1257300" y="34585275"/>
           <a:ext cx="2514600" cy="1381125"/>
           <a:chOff x="1295400" y="20250150"/>
           <a:chExt cx="2514600" cy="1381125"/>
@@ -5824,13 +5812,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5846,7 +5834,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1247775" y="32442149"/>
+          <a:off x="1247775" y="37442774"/>
           <a:ext cx="4105276" cy="3114676"/>
           <a:chOff x="1285875" y="23250524"/>
           <a:chExt cx="4105276" cy="3114676"/>
@@ -6153,13 +6141,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6213,13 +6201,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6235,7 +6223,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6248399" y="32451674"/>
+          <a:off x="6248399" y="37452299"/>
           <a:ext cx="5057775" cy="3114676"/>
           <a:chOff x="6095999" y="23088599"/>
           <a:chExt cx="5057775" cy="3114676"/>
@@ -8520,13 +8508,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8542,7 +8530,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1257300" y="43891199"/>
+          <a:off x="1257300" y="48891824"/>
           <a:ext cx="4105276" cy="3114676"/>
           <a:chOff x="1276350" y="27298649"/>
           <a:chExt cx="4105276" cy="3114676"/>
@@ -8912,13 +8900,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8992,13 +8980,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -9014,7 +9002,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6048374" y="43900724"/>
+          <a:off x="6048374" y="48901349"/>
           <a:ext cx="5057775" cy="3114676"/>
           <a:chOff x="6486524" y="26708099"/>
           <a:chExt cx="5057775" cy="3114676"/>
@@ -11279,13 +11267,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11339,13 +11327,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11419,13 +11407,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11479,13 +11467,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11547,13 +11535,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11615,13 +11603,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11683,13 +11671,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>145074</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -11705,7 +11693,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1057275" y="36957000"/>
+          <a:off x="1057275" y="41957625"/>
           <a:ext cx="14268450" cy="5336199"/>
           <a:chOff x="1057275" y="33070800"/>
           <a:chExt cx="14268450" cy="5336199"/>
@@ -12371,20 +12359,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>310134</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>3619</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>80447</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20"/>
+        <xdr:cNvPr id="251" name="図 250"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12397,7 +12385,159 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9058275" y="17068800"/>
+          <a:off x="1285875" y="23788688"/>
+          <a:ext cx="9142857" cy="4128572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>165546</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>61399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="252" name="図 251"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11120439" y="23788688"/>
+          <a:ext cx="9142857" cy="4109524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>3619</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>80447</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="28313063"/>
+          <a:ext cx="9142857" cy="4128572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>165546</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>89971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11120439" y="28313064"/>
+          <a:ext cx="9142857" cy="4138095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>272034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="253" name="図 252"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8315325" y="13268325"/>
           <a:ext cx="4200525" cy="3472434"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12409,16 +12549,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>1447800</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>2400300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12427,7 +12567,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9182100" y="17183100"/>
+          <a:off x="8448675" y="13373100"/>
           <a:ext cx="2105025" cy="2038350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12469,16 +12609,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>800101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>971551</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>1924051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12487,7 +12627,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11553825" y="17621251"/>
+          <a:off x="10820400" y="13811251"/>
           <a:ext cx="1143000" cy="1123950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12529,16 +12669,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>1743077</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>238127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12547,7 +12687,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9201150" y="19516727"/>
+          <a:off x="8467725" y="15706727"/>
           <a:ext cx="3905250" cy="914398"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12589,16 +12729,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>657225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12607,7 +12747,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11658600" y="16792575"/>
+          <a:off x="10925175" y="12982575"/>
           <a:ext cx="2133600" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
@@ -12654,16 +12794,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>971550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>761999</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>1714499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12672,7 +12812,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13096875" y="17792700"/>
+          <a:off x="12363450" y="13982700"/>
           <a:ext cx="1819275" cy="742949"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
@@ -12727,16 +12867,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>1057275</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>2009775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>1628775</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12745,7 +12885,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13049250" y="18830925"/>
+          <a:off x="12315825" y="15020925"/>
           <a:ext cx="1133475" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
@@ -12788,82 +12928,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>150843</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="251" name="図 250"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1285875" y="22212300"/>
-          <a:ext cx="9237693" cy="4181475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>582184</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>128927</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="252" name="図 251"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11058525" y="22212300"/>
-          <a:ext cx="9497584" cy="4177052"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15537,10 +15601,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W183"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="B2:W204"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P76" sqref="P76"/>
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15679,535 +15746,608 @@
       </c>
     </row>
     <row r="49" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="E49" t="s">
-        <v>25</v>
+      <c r="E49" s="18" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="5:23" x14ac:dyDescent="0.4">
       <c r="F50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="F51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="F52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="F54" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="G54" s="28"/>
+      <c r="H54" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="P54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="5:23" ht="193.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F55" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="5:23" ht="78.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F56" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="5:23" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F57" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="E59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="F60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="F61" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="E62" s="22"/>
+    </row>
+    <row r="63" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="N63" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="N64" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O64" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="25"/>
+      <c r="T64" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="U64" s="25"/>
+      <c r="V64" s="25"/>
+      <c r="W64" s="25"/>
+    </row>
+    <row r="65" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="N65" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="7"/>
+    </row>
+    <row r="66" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="N66" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="7"/>
+    </row>
+    <row r="67" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="N67" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="7"/>
+    </row>
+    <row r="68" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="N68" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="7"/>
+    </row>
+    <row r="69" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="N69" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="7"/>
+    </row>
+    <row r="70" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="N70" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="7"/>
+    </row>
+    <row r="71" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="N71" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="7"/>
+    </row>
+    <row r="72" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="N72" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="7"/>
+    </row>
+    <row r="73" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="N73" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="7"/>
+    </row>
+    <row r="74" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="N74" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O74" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="U74" s="13"/>
+      <c r="V74" s="13"/>
+      <c r="W74" s="14"/>
+    </row>
+    <row r="77" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="E77" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="F78" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="F51" s="23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="52" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="E52" s="22"/>
-    </row>
-    <row r="53" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="N53" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="N54" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="O54" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="U54" s="28"/>
-      <c r="V54" s="28"/>
-      <c r="W54" s="28"/>
-    </row>
-    <row r="55" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="N55" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O55" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="7"/>
-    </row>
-    <row r="56" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="N56" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O56" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="7"/>
-    </row>
-    <row r="57" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="N57" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O57" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="7"/>
-    </row>
-    <row r="58" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="N58" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O58" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="7"/>
-    </row>
-    <row r="59" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="N59" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O59" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="7"/>
-    </row>
-    <row r="60" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="N60" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O60" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="7"/>
-    </row>
-    <row r="61" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="N61" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O61" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="7"/>
-      <c r="T61" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6"/>
-      <c r="W61" s="7"/>
-    </row>
-    <row r="62" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="N62" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O62" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="U62" s="6"/>
-      <c r="V62" s="6"/>
-      <c r="W62" s="7"/>
-    </row>
-    <row r="63" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="N63" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O63" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="7"/>
-      <c r="T63" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="U63" s="6"/>
-      <c r="V63" s="6"/>
-      <c r="W63" s="7"/>
-    </row>
-    <row r="64" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="N64" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O64" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="7"/>
-      <c r="T64" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="U64" s="13"/>
-      <c r="V64" s="13"/>
-      <c r="W64" s="14"/>
-    </row>
-    <row r="67" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E67" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="F68" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="69" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="E69" s="18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="70" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="F70" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="71" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="F71" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="F72" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="74" spans="5:17" x14ac:dyDescent="0.4">
-      <c r="F74" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G74" s="25"/>
-      <c r="H74" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="27"/>
-      <c r="M74" s="25"/>
-      <c r="N74" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="75" spans="5:17" ht="193.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F75" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="26"/>
-      <c r="M75" s="26"/>
-      <c r="N75" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="76" spans="5:17" ht="78.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F76" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="26"/>
-      <c r="M76" s="26"/>
-      <c r="N76" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="77" spans="5:17" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F77" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="26"/>
-      <c r="N77" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="79" spans="5:17" x14ac:dyDescent="0.4">
+    <row r="79" spans="5:23" x14ac:dyDescent="0.4">
       <c r="E79" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" spans="5:17" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="5:23" x14ac:dyDescent="0.4">
       <c r="E80" s="23"/>
     </row>
     <row r="81" spans="5:20" x14ac:dyDescent="0.4">
       <c r="E81" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="5:20" x14ac:dyDescent="0.4">
       <c r="E82" s="23" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="5:20" x14ac:dyDescent="0.4">
       <c r="E83" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T83" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E84" s="23"/>
+      <c r="E84" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="T84" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="85" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E85" s="23"/>
+      <c r="E85" s="24"/>
     </row>
     <row r="86" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E86" s="23"/>
+      <c r="E86" s="24"/>
     </row>
     <row r="87" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E87" s="23"/>
+      <c r="E87" s="24"/>
     </row>
     <row r="88" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E88" s="23"/>
+      <c r="E88" s="24"/>
     </row>
     <row r="89" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E89" s="23"/>
+      <c r="E89" s="24"/>
     </row>
     <row r="90" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E90" s="23"/>
+      <c r="E90" s="24"/>
     </row>
     <row r="91" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E91" s="23"/>
+      <c r="E91" s="24"/>
     </row>
     <row r="92" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E92" s="23"/>
+      <c r="E92" s="24"/>
     </row>
     <row r="93" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E93" s="23"/>
+      <c r="E93" s="24"/>
     </row>
     <row r="94" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E94" s="23"/>
+      <c r="E94" s="24"/>
     </row>
     <row r="95" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E95" s="23"/>
+      <c r="E95" s="24"/>
     </row>
     <row r="96" spans="5:20" x14ac:dyDescent="0.4">
-      <c r="E96" s="23"/>
-    </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E97" s="23"/>
-    </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E98" s="23"/>
-    </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E99" s="23"/>
-    </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E100" s="23"/>
-    </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E101" s="23"/>
-    </row>
-    <row r="103" spans="3:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C103" s="2" t="s">
+      <c r="E96" s="24"/>
+    </row>
+    <row r="97" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E97" s="24"/>
+    </row>
+    <row r="98" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E98" s="24"/>
+    </row>
+    <row r="99" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E99" s="24"/>
+    </row>
+    <row r="100" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E100" s="24"/>
+    </row>
+    <row r="101" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E101" s="24"/>
+    </row>
+    <row r="102" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E102" s="24"/>
+    </row>
+    <row r="103" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E103" s="24"/>
+    </row>
+    <row r="104" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E104" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="T104" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="105" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E105" s="24"/>
+    </row>
+    <row r="106" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E106" s="24"/>
+    </row>
+    <row r="107" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E107" s="24"/>
+    </row>
+    <row r="108" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E108" s="24"/>
+    </row>
+    <row r="109" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E109" s="24"/>
+    </row>
+    <row r="110" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E110" s="24"/>
+    </row>
+    <row r="111" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E111" s="24"/>
+    </row>
+    <row r="112" spans="5:20" x14ac:dyDescent="0.4">
+      <c r="E112" s="24"/>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E113" s="24"/>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E114" s="24"/>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E115" s="24"/>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E116" s="24"/>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E117" s="24"/>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E118" s="24"/>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E119" s="24"/>
+    </row>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E120" s="24"/>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E121" s="24"/>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E122" s="24"/>
+    </row>
+    <row r="124" spans="3:5" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C124" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D125" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D126" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D103" s="1"/>
-    </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D104" t="s">
+    </row>
+    <row r="127" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E127" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D105" s="1" t="s">
+    <row r="128" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E128" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E106" t="s">
+    <row r="135" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="N135" s="8"/>
+    </row>
+    <row r="137" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D137" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E107" t="s">
+    <row r="138" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D138" s="1"/>
+      <c r="E138" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="114" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="N114" s="8"/>
-    </row>
-    <row r="116" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D116" s="1" t="s">
+    <row r="139" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="F139" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="117" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D117" s="1"/>
-      <c r="E117" s="1" t="s">
+    <row r="140" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="F140" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="118" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="F118" t="s">
+      <c r="M140" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="119" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="F119" t="s">
+    <row r="155" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E155" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M119" t="s">
+    </row>
+    <row r="156" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="F156" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="134" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E134" s="1" t="s">
+    <row r="157" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="F157" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="135" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="F135" t="s">
+    <row r="158" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="F158" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="136" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="F136" t="s">
+    <row r="159" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="F159" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="137" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="F137" t="s">
+    <row r="184" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D184" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="138" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="F138" t="s">
+    <row r="185" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="E185" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="163" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D163" s="1" t="s">
+    <row r="186" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="F186" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="164" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="E164" s="1" t="s">
+      <c r="I186" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="165" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="F165" t="s">
+    <row r="187" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="F187" t="s">
         <v>79</v>
       </c>
-      <c r="I165" t="s">
+    </row>
+    <row r="188" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="F188" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="166" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="F166" t="s">
+    <row r="203" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E203" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="167" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="F167" t="s">
+    <row r="204" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="F204" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="182" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E182" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="183" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="F183" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="O54:S54"/>
-    <mergeCell ref="T54:W54"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H75:M75"/>
-    <mergeCell ref="H77:M77"/>
-    <mergeCell ref="H76:M76"/>
-    <mergeCell ref="H74:M74"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H55:M55"/>
+    <mergeCell ref="H57:M57"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="H54:M54"/>
+    <mergeCell ref="O64:S64"/>
+    <mergeCell ref="T64:W64"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F56:G56"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16218,10 +16358,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="B2:O211"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView showGridLines="0" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16235,83 +16378,83 @@
   <sheetData>
     <row r="2" spans="2:6" ht="24" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C12" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C13" s="2"/>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C14" s="2"/>
       <c r="D14" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C15" s="2"/>
       <c r="D15" s="16"/>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C16" s="2"/>
       <c r="E16" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
@@ -16340,26 +16483,26 @@
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.4">
       <c r="D25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.4">
       <c r="D26" s="1"/>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.4">
       <c r="D27" s="1"/>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.4">
       <c r="D28" s="1"/>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.4">
@@ -16368,10 +16511,10 @@
     <row r="30" spans="3:12" x14ac:dyDescent="0.4">
       <c r="D30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.4">
@@ -16409,19 +16552,19 @@
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D42" s="21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D43" s="1"/>
       <c r="E43" s="17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E44" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F44" s="1"/>
     </row>
@@ -16432,19 +16575,19 @@
     <row r="46" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D46" s="1"/>
       <c r="E46" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E47" s="22"/>
       <c r="F47" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E48" s="22"/>
       <c r="F48" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="4:14" x14ac:dyDescent="0.4">
@@ -16453,31 +16596,31 @@
     </row>
     <row r="50" spans="4:14" x14ac:dyDescent="0.4">
       <c r="F50" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="4:14" x14ac:dyDescent="0.4">
       <c r="F51" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="4:14" x14ac:dyDescent="0.4">
       <c r="I55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="4:14" x14ac:dyDescent="0.4">
       <c r="G61" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="4:14" x14ac:dyDescent="0.4">
@@ -16486,19 +16629,19 @@
     <row r="63" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D63" s="1"/>
       <c r="E63" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="4:14" x14ac:dyDescent="0.4">
       <c r="E64" s="22"/>
       <c r="F64" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.4">
       <c r="E65" s="22"/>
       <c r="F65" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.4">
@@ -16507,19 +16650,19 @@
     <row r="67" spans="3:6" x14ac:dyDescent="0.4">
       <c r="D67" s="1"/>
       <c r="E67" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.4">
       <c r="E68" s="22"/>
       <c r="F68" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.4">
       <c r="E69" s="22"/>
       <c r="F69" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.4">
@@ -16529,7 +16672,7 @@
     <row r="71" spans="3:6" x14ac:dyDescent="0.4">
       <c r="E71" s="22"/>
       <c r="F71" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.4">
@@ -16552,82 +16695,82 @@
     </row>
     <row r="79" spans="3:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C79" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.4">
       <c r="D80" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D81" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.4">
       <c r="E82" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.4">
       <c r="E83" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D105" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.4">
       <c r="E106" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="4:5" x14ac:dyDescent="0.4">
       <c r="E107" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="4:5" x14ac:dyDescent="0.4">
       <c r="E108" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="130" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D130" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="131" spans="4:5" x14ac:dyDescent="0.4">
       <c r="E131" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132" spans="4:5" x14ac:dyDescent="0.4">
       <c r="E132" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="133" spans="4:5" x14ac:dyDescent="0.4">
       <c r="E133" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="156" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D156" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="157" spans="4:5" x14ac:dyDescent="0.4">
       <c r="E157" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="158" spans="4:5" x14ac:dyDescent="0.4">
       <c r="E158" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="159" spans="4:5" x14ac:dyDescent="0.4">
@@ -16635,27 +16778,27 @@
     </row>
     <row r="188" spans="3:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C188" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="189" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D189" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="190" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D190" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="192" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D192" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="211" spans="15:15" ht="24" x14ac:dyDescent="0.4">
       <c r="O211" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -16667,21 +16810,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101003442B980DF3C8247A14AC4F4CEC26B16" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="28b866df324f6e72f4ae0767aa81268a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="545b8069-f163-4bb3-9d35-7febfaab5682" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44d7a6a8b5cec89910e4d0bef4271b70" ns2:_="">
     <xsd:import namespace="545b8069-f163-4bb3-9d35-7febfaab5682"/>
@@ -16825,24 +16953,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E4C9164-9275-4CAC-B0D4-90C713730255}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{377AAC04-75C8-496D-8371-2E373E464FCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FD5F226-5D23-45D5-8A79-8AD7C1CFA867}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16858,4 +16984,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E4C9164-9275-4CAC-B0D4-90C713730255}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{377AAC04-75C8-496D-8371-2E373E464FCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>